--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C51ECE-5CCB-458D-ADC2-3A4667372990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89240776-2227-4ABD-8441-58452785E11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="689">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2547,10 +2547,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>商朝卜算</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>周朝分封</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2735,14 +2731,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>特色建筑（替代纪念碑，崇拜建筑）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>特色兵种</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2751,10 +2739,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>特色建筑/国家奇观/单位晋升</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>昊天上帝</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2815,14 +2799,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>渔猎文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>农耕文明</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2831,15 +2807,51 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>文明发源：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>特征</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>初始科技+建造速度</t>
+    <t>时期：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始科技</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族史诗特色</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定弱特色单位</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色纪念碑，崇拜建筑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色建筑/单位晋升</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔猎文明（）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>社稷</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋文明（文明摇篮）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕文明（大禹治水）</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -4660,7 +4672,7 @@
   <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1:J1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1:J1"/>
     </sheetView>
@@ -5210,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6001,8 +6013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6041,42 +6053,42 @@
     </row>
     <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="J2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B3" t="s">
         <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H3" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="J3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M3" t="s">
         <v>588</v>
@@ -6090,27 +6102,27 @@
     </row>
     <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F4" t="s">
         <v>611</v>
       </c>
       <c r="H4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
         <v>590</v>
@@ -6122,10 +6134,10 @@
         <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P5" t="s">
         <v>573</v>
@@ -6133,19 +6145,19 @@
     </row>
     <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F6" t="s">
         <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J6" t="s">
         <v>604</v>
@@ -6156,7 +6168,7 @@
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B7" t="s">
         <v>590</v>
@@ -6168,10 +6180,10 @@
         <v>605</v>
       </c>
       <c r="H7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P7" t="s">
         <v>571</v>
@@ -6179,50 +6191,50 @@
     </row>
     <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B9" t="s">
         <v>591</v>
       </c>
       <c r="D9" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D10" t="s">
         <v>599</v>
@@ -6231,7 +6243,7 @@
         <v>610</v>
       </c>
       <c r="H10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J10" t="s">
         <v>610</v>
@@ -6242,7 +6254,7 @@
     </row>
     <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B11" t="s">
         <v>592</v>
@@ -6254,10 +6266,10 @@
         <v>609</v>
       </c>
       <c r="H11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P11" t="s">
         <v>571</v>
@@ -6265,44 +6277,44 @@
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D12" t="s">
         <v>601</v>
       </c>
       <c r="F12" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" t="s">
         <v>654</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>652</v>
+      </c>
+      <c r="J13" t="s">
         <v>655</v>
-      </c>
-      <c r="H13" t="s">
-        <v>653</v>
-      </c>
-      <c r="J13" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B14" t="s">
         <v>593</v>
@@ -6311,7 +6323,7 @@
         <v>602</v>
       </c>
       <c r="H14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P14" t="s">
         <v>574</v>
@@ -6319,16 +6331,16 @@
     </row>
     <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B15" t="s">
         <v>596</v>
       </c>
       <c r="H15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P15" t="s">
         <v>575</v>
@@ -6336,7 +6348,7 @@
     </row>
     <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B16" t="s">
         <v>595</v>
@@ -6345,7 +6357,7 @@
         <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P16" t="s">
         <v>576</v>
@@ -6353,7 +6365,7 @@
     </row>
     <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B17" t="s">
         <v>594</v>
@@ -6365,7 +6377,7 @@
         <v>606</v>
       </c>
       <c r="H17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P17" t="s">
         <v>575</v>
@@ -6373,19 +6385,19 @@
     </row>
     <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F18" t="s">
         <v>607</v>
       </c>
       <c r="H18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J18" t="s">
         <v>607</v>
@@ -6393,10 +6405,10 @@
     </row>
     <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D19" t="s">
         <v>568</v>
@@ -6415,49 +6427,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF3EA9-8A80-49C3-85FB-59FE3F82CBFB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>662</v>
-      </c>
-      <c r="B5" t="s">
-        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89240776-2227-4ABD-8441-58452785E11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318F285-4940-46EB-9BA8-1460347A6234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -2391,475 +2391,474 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>Brasil</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexican</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>American</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinduism</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELZN</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美洲文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地中海文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北非文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南非文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游牧文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东亚文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾格里</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔特/北欧神系</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>高卢/日耳曼文化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰克/神罗</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗制度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳粹德国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美利坚</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政罗马</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯巴达/马其顿/罗马</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜占庭</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>教宗制度/耶路撒冷骑士国家</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利各邦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>意大利统一/希腊独立</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>法西斯意大利</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉伯黄金时代</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一哈里发国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯末尔土耳其</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳赛尔主义</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美索不达米亚诸城邦/波斯帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>教法制度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕夏制度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>易卜拉欣</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>周朝分封</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家思想</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>军功爵制度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>藩王/大名</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐宋科举</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）黄巾天师</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛亥革命</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>光头民国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>政党政府日本/孙文民国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>军国主义日本</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及神系</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦太基</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉尼拔迦太基</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃米尔</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏柏尔国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉萨同盟/维京扩张</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>东德/苏联/北欧</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赫诺的黑军</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>南斯拉夫</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>所罗门教会/阿吞改革</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯，热那亚等</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）迦太基延续</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>多神</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>一神</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>酋邦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>求智</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>求战</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>求财</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>封建</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>神权</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>法西斯</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无政府</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>明治帝国主义/（架空）完全体天朝</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>西葡殖民帝国/奥匈多元帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯曼海权/帖木儿陆权</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>（架空）埃及延续/（架空）埃塞俄比亚帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>马穆鲁克/（架空）埃及神系延续</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>神系：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色兵种</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊天上帝</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教（扩张传教）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教（牧首区）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美索不达米亚神系/祆教</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊/罗马神系/密特拉教</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>古希腊哲学（雅典）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>加洛林文艺复兴</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸之路</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦巴第王国/意大利诸城邦</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>西罗马帝国</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>心学改革/顾炎武，王夫之等思想</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新教/启蒙时代</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>英法海权/德，俄陆权</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿萨比亚</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕/海洋文明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>时期：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始科技</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族史诗特色</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定弱特色单位</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色纪念碑，崇拜建筑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色建筑/单位晋升</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔猎文明（）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>社稷</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋文明（文明摇篮）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕文明（大禹治水）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>Tiwanaku</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brasil</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mexican</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>American</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hinduism</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELZN</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>美洲文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地中海文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧洲文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北非文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南非文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游牧文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾格里</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯尔特/北欧神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>高卢/日耳曼文化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰克/神罗</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>教宗制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>法国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳粹德国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>美利坚</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>王政罗马</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯巴达/马其顿/罗马</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜占庭</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>教宗制度/耶路撒冷骑士国家</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>意大利各邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>意大利统一/希腊独立</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>法西斯意大利</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿拉伯黄金时代</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一哈里发国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯末尔土耳其</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳赛尔主义</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>美索不达米亚诸城邦/波斯帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>教法制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕夏制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>易卜拉欣</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>周朝分封</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>百家思想</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>军功爵制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>藩王/大名</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐宋科举</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>（架空）黄巾天师</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛亥革命</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>光头民国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>政党政府日本/孙文民国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>军国主义日本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>东大</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃及神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>迦太基</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉尼拔迦太基</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃米尔</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏柏尔国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉萨同盟/维京扩张</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>东德/苏联/北欧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>马赫诺的黑军</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>南斯拉夫</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>所罗门教会/阿吞改革</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>威尼斯，热那亚等</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>（架空）迦太基延续</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>多神</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>一神</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>酋邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>求智</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>求战</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>求财</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>封建</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>集权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>神权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>革命</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>保守</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>法西斯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>无政府</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>明治帝国主义/（架空）完全体天朝</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>西葡殖民帝国/奥匈多元帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥斯曼海权/帖木儿陆权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>（架空）埃及延续/（架空）埃塞俄比亚帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>马穆鲁克/（架空）埃及神系延续</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>神系：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色兵种</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>制度：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>昊天上帝</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>基督教（扩张传教）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>基督教（牧首区）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>美索不达米亚神系/祆教</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊/罗马神系/密特拉教</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>古希腊哲学（雅典）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>加洛林文艺复兴</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝绸之路</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>伦巴第王国/意大利诸城邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>西罗马帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>心学改革/顾炎武，王夫之等思想</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>新教/启蒙时代</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>英法海权/德，俄陆权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿萨比亚</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>农耕文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>农耕/海洋文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>时期：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>文明：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始科技</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族史诗特色</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定弱特色单位</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色纪念碑，崇拜建筑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>特色建筑/单位晋升</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔猎文明（）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>社稷</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋文明（文明摇篮）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>农耕文明（大禹治水）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3626,9 +3625,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="39" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3637,21 +3636,21 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>279</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="39" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>280</v>
       </c>
@@ -3712,9 +3711,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.4" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="38.4" customHeight="1">
       <c r="B1" t="s">
         <v>167</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="38.4" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="38.4" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>82</v>
@@ -3892,7 +3891,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="38.4" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>182</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="38.4" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
         <v>523</v>
@@ -3978,7 +3977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="38.4" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>83</v>
@@ -4035,7 +4034,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="38.4" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="38.4" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
         <v>85</v>
@@ -4119,7 +4118,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="38.4" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>183</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="38.4" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>86</v>
@@ -4206,7 +4205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="38.4" customHeight="1">
       <c r="H12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="38.4" customHeight="1">
       <c r="T13" s="5" t="s">
         <v>141</v>
       </c>
@@ -4258,9 +4257,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="81.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="81.75" customHeight="1">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="81.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>422</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="143.25" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>414</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="81.75" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>423</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="81.75" customHeight="1">
       <c r="C5" s="15" t="s">
         <v>436</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="81.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>445</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="81.75" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>453</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="81.75" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>460</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="81.75" customHeight="1">
       <c r="D9" s="15" t="s">
         <v>462</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="81.75" customHeight="1">
       <c r="C10" s="15" t="s">
         <v>471</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="81.75" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>477</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="81.75" customHeight="1">
       <c r="C12" s="19" t="s">
         <v>494</v>
       </c>
@@ -4677,9 +4676,9 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="24.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="24.75" customHeight="1">
       <c r="B1" s="16" t="s">
         <v>182</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="24.75" customHeight="1">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="24.75" customHeight="1">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="24.75" customHeight="1">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="24.75" customHeight="1">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="24.75" customHeight="1">
       <c r="A6" t="s">
         <v>511</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="24.75" customHeight="1">
       <c r="A7" t="s">
         <v>512</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="24.75" customHeight="1">
       <c r="A8" t="s">
         <v>513</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="24.75" customHeight="1">
       <c r="A9" t="s">
         <v>514</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="24.75" customHeight="1">
       <c r="A10" t="s">
         <v>515</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="24.75" customHeight="1">
       <c r="A11" t="s">
         <v>516</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="24.75" customHeight="1">
       <c r="A12" t="s">
         <v>517</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="24.75" customHeight="1">
       <c r="L13" s="18" t="s">
         <v>323</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="24.75" customHeight="1">
       <c r="Z14" s="18" t="s">
         <v>355</v>
       </c>
@@ -5129,12 +5128,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="24.75" customHeight="1">
       <c r="Z15" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="24.75" customHeight="1">
       <c r="A16" t="s">
         <v>365</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="24.75" customHeight="1">
       <c r="A17" t="s">
         <v>377</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="24.75" customHeight="1">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -5226,9 +5225,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="24.6" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1">
       <c r="A1" t="s">
         <v>299</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.6" customHeight="1">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.6" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5281,22 +5280,22 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.6" customHeight="1">
       <c r="B5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.6" customHeight="1">
       <c r="B6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.6" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.6" customHeight="1">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="24.6" customHeight="1">
       <c r="B9" t="s">
         <v>196</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.6" customHeight="1">
       <c r="B10" t="s">
         <v>292</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.6" customHeight="1">
       <c r="B11" t="s">
         <v>291</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.6" customHeight="1">
       <c r="B12" t="s">
         <v>293</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.6" customHeight="1">
       <c r="B13" t="s">
         <v>206</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.6" customHeight="1">
       <c r="B14" t="s">
         <v>205</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.6" customHeight="1">
       <c r="B15" t="s">
         <v>210</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.6" customHeight="1">
       <c r="B16" t="s">
         <v>211</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="24.6" customHeight="1">
       <c r="B17" t="s">
         <v>212</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="24.6" customHeight="1">
       <c r="B18" t="s">
         <v>214</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="24.6" customHeight="1">
       <c r="B19" t="s">
         <v>220</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="24.6" customHeight="1">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -5484,12 +5483,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="24.6" customHeight="1">
       <c r="B21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="24.6" customHeight="1">
       <c r="A22" t="s">
         <v>380</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="24.6" customHeight="1">
       <c r="B23" t="s">
         <v>231</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="24.6" customHeight="1">
       <c r="B24" s="9" t="s">
         <v>237</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="24.6" customHeight="1">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="24.6" customHeight="1">
       <c r="B26" t="s">
         <v>227</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="24.6" customHeight="1">
       <c r="B27" s="13" t="s">
         <v>245</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="24.6" customHeight="1">
       <c r="B28" t="s">
         <v>232</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="24.6" customHeight="1">
       <c r="A29" t="s">
         <v>382</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="24.6" customHeight="1">
       <c r="A30" t="s">
         <v>383</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="24.6" customHeight="1">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="24.6" customHeight="1">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="24.6" customHeight="1">
       <c r="B33" t="s">
         <v>239</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="24.6" customHeight="1">
       <c r="B34" t="s">
         <v>255</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="24.6" customHeight="1">
       <c r="B35" t="s">
         <v>304</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="24.6" customHeight="1">
       <c r="A36" t="s">
         <v>385</v>
       </c>
@@ -5681,12 +5680,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="24.6" customHeight="1">
       <c r="B37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="24.6" customHeight="1">
       <c r="A38" t="s">
         <v>386</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="24.6" customHeight="1">
       <c r="B39" t="s">
         <v>305</v>
       </c>
@@ -5711,57 +5710,57 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="24.6" customHeight="1">
       <c r="A40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="24.6" customHeight="1">
       <c r="A41" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="24.6" customHeight="1">
       <c r="A42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="24.6" customHeight="1">
       <c r="A44" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="24.6" customHeight="1">
       <c r="A45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="24.6" customHeight="1">
       <c r="A46" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="24.6" customHeight="1">
       <c r="A47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="24.6" customHeight="1">
       <c r="A48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="24.6" customHeight="1">
       <c r="A49" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="24.6" customHeight="1">
       <c r="A50" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="24.6" customHeight="1">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -5782,9 +5781,9 @@
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="21" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" customHeight="1">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5875,7 +5874,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" customHeight="1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" customHeight="1">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" customHeight="1">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -6013,410 +6012,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1">
       <c r="B1" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H2" t="s">
+        <v>687</v>
+      </c>
+      <c r="J2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H3" t="s">
+        <v>685</v>
+      </c>
+      <c r="J3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M3" t="s">
         <v>587</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F2" t="s">
-        <v>675</v>
-      </c>
-      <c r="H2" t="s">
-        <v>688</v>
-      </c>
-      <c r="J2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" t="s">
-        <v>664</v>
-      </c>
-      <c r="H3" t="s">
-        <v>686</v>
-      </c>
-      <c r="J3" t="s">
-        <v>623</v>
-      </c>
-      <c r="M3" t="s">
-        <v>588</v>
-      </c>
       <c r="N3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="68.25" customHeight="1">
       <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F4" t="s">
+        <v>610</v>
+      </c>
+      <c r="H4" t="s">
+        <v>659</v>
+      </c>
+      <c r="J4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A5" t="s">
         <v>636</v>
       </c>
-      <c r="B4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D4" t="s">
-        <v>662</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H5" t="s">
         <v>611</v>
       </c>
-      <c r="H4" t="s">
-        <v>660</v>
-      </c>
-      <c r="J4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A6" t="s">
         <v>637</v>
       </c>
-      <c r="B5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F5" t="s">
-        <v>608</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" t="s">
+        <v>603</v>
+      </c>
+      <c r="H6" t="s">
         <v>612</v>
       </c>
-      <c r="J5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>638</v>
-      </c>
-      <c r="B6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="F6" t="s">
-        <v>604</v>
-      </c>
-      <c r="H6" t="s">
-        <v>613</v>
-      </c>
       <c r="J6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="68.25" customHeight="1">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="68.25" customHeight="1">
       <c r="A8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>632</v>
+      </c>
+      <c r="F8" t="s">
+        <v>667</v>
+      </c>
+      <c r="H8" t="s">
+        <v>667</v>
+      </c>
+      <c r="J8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A9" t="s">
         <v>640</v>
       </c>
-      <c r="B8" t="s">
-        <v>628</v>
-      </c>
-      <c r="D8" t="s">
-        <v>633</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" t="s">
         <v>668</v>
       </c>
-      <c r="H8" t="s">
-        <v>668</v>
-      </c>
-      <c r="J8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H9" t="s">
+        <v>614</v>
+      </c>
+      <c r="J9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A10" t="s">
         <v>641</v>
       </c>
-      <c r="B9" t="s">
-        <v>591</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
         <v>669</v>
       </c>
-      <c r="F9" t="s">
-        <v>626</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="F10" t="s">
+        <v>609</v>
+      </c>
+      <c r="H10" t="s">
         <v>615</v>
       </c>
-      <c r="J9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B10" t="s">
-        <v>670</v>
-      </c>
-      <c r="D10" t="s">
-        <v>599</v>
-      </c>
-      <c r="F10" t="s">
-        <v>610</v>
-      </c>
-      <c r="H10" t="s">
-        <v>616</v>
-      </c>
       <c r="J10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="68.25" customHeight="1">
       <c r="A11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="68.25" customHeight="1">
       <c r="A12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="D12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F12" t="s">
+        <v>673</v>
+      </c>
+      <c r="H12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A13" t="s">
         <v>644</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>672</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
+        <v>652</v>
+      </c>
+      <c r="F13" t="s">
+        <v>653</v>
+      </c>
+      <c r="H13" t="s">
+        <v>651</v>
+      </c>
+      <c r="J13" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" t="s">
         <v>601</v>
       </c>
-      <c r="F12" t="s">
-        <v>674</v>
-      </c>
-      <c r="H12" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" t="s">
-        <v>673</v>
-      </c>
-      <c r="D13" t="s">
-        <v>653</v>
-      </c>
-      <c r="F13" t="s">
-        <v>654</v>
-      </c>
-      <c r="H13" t="s">
-        <v>652</v>
-      </c>
-      <c r="J13" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H14" t="s">
+        <v>617</v>
+      </c>
+      <c r="P14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A15" t="s">
         <v>646</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>595</v>
+      </c>
+      <c r="H15" t="s">
+        <v>619</v>
+      </c>
+      <c r="J15" t="s">
+        <v>633</v>
+      </c>
+      <c r="P15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B16" t="s">
+        <v>594</v>
+      </c>
+      <c r="F16" t="s">
+        <v>605</v>
+      </c>
+      <c r="H16" t="s">
+        <v>618</v>
+      </c>
+      <c r="P16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>648</v>
+      </c>
+      <c r="B17" t="s">
         <v>593</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>602</v>
       </c>
-      <c r="H14" t="s">
-        <v>618</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="F17" t="s">
+        <v>605</v>
+      </c>
+      <c r="H17" t="s">
+        <v>620</v>
+      </c>
+      <c r="P17" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>647</v>
-      </c>
-      <c r="B15" t="s">
-        <v>596</v>
-      </c>
-      <c r="H15" t="s">
-        <v>620</v>
-      </c>
-      <c r="J15" t="s">
-        <v>634</v>
-      </c>
-      <c r="P15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>648</v>
-      </c>
-      <c r="B16" t="s">
-        <v>595</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="18" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" t="s">
+        <v>628</v>
+      </c>
+      <c r="D18" t="s">
+        <v>630</v>
+      </c>
+      <c r="F18" t="s">
         <v>606</v>
       </c>
-      <c r="H16" t="s">
-        <v>619</v>
-      </c>
-      <c r="P16" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B17" t="s">
-        <v>594</v>
-      </c>
-      <c r="D17" t="s">
-        <v>603</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H18" t="s">
+        <v>621</v>
+      </c>
+      <c r="J18" t="s">
         <v>606</v>
       </c>
-      <c r="H17" t="s">
-        <v>621</v>
-      </c>
-      <c r="P17" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A19" t="s">
         <v>650</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>629</v>
-      </c>
-      <c r="D18" t="s">
-        <v>631</v>
-      </c>
-      <c r="F18" t="s">
-        <v>607</v>
-      </c>
-      <c r="H18" t="s">
-        <v>622</v>
-      </c>
-      <c r="J18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>651</v>
-      </c>
-      <c r="B19" t="s">
-        <v>630</v>
       </c>
       <c r="D19" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="68.25" customHeight="1">
       <c r="P20" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6433,49 +6432,49 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="39.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1">
       <c r="A1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A4" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>657</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" t="s">
         <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B5" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318F285-4940-46EB-9BA8-1460347A6234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49562B-976C-4A1A-9434-58C1F9D2CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
     <sheet name="Techtree" sheetId="5" r:id="rId2"/>
-    <sheet name="Building" sheetId="11" r:id="rId3"/>
-    <sheet name="Units" sheetId="9" r:id="rId4"/>
-    <sheet name="Promotion" sheetId="8" r:id="rId5"/>
-    <sheet name="Civ Design(Out of Policy)" sheetId="6" r:id="rId6"/>
-    <sheet name="Civ Design(in Policy) chi" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="PTechtree" sheetId="15" r:id="rId3"/>
+    <sheet name="Building" sheetId="11" r:id="rId4"/>
+    <sheet name="Units" sheetId="9" r:id="rId5"/>
+    <sheet name="Promotion" sheetId="8" r:id="rId6"/>
+    <sheet name="Civ Design(Out of Policy)" sheetId="6" r:id="rId7"/>
+    <sheet name="Civ Design(in Policy) chi" sheetId="13" r:id="rId8"/>
+    <sheet name="chi" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,26 +42,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="782">
   <si>
     <t>1.Extended tech tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.Policy trees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.Combined civs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.Upgradable tile improvements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.New buildings </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mining</t>
@@ -70,47 +71,47 @@
   </si>
   <si>
     <t>Agriculture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Philosophy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shipmaking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Optic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Armorments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Drama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Irrigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6.New wonders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mediterranean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Eurasian nomads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,79 +127,79 @@
       </rPr>
       <t xml:space="preserve"> Asian</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>West Asian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Subsaharan African</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>American</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>South Asian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Food </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Culture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Faith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Maize Farming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Herdings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Spice trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Silk road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Guilds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Military</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Expansion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -214,59 +215,59 @@
       </rPr>
       <t xml:space="preserve"> roads</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Church authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Spartans &amp; Legions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>European</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sahal Nomad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Islam warriors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mercenary army</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pax mongolia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Phonician and Venice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Enlightment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>World Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Windmills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Statues &amp; Great persons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mayan Astrology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -282,603 +283,519 @@
       </rPr>
       <t xml:space="preserve"> Pottery</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Roman cities </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ravaging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Divan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cresent and sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fertile Cresent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hitties Ironworks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gunpowder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Malian &amp; Cross saharan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Communal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Nomadic migration </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Innovation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mandate of heaven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Wisdom of buddua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mordalo infanstructure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Wootz steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Administration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coal working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Theology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Civil service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Alchemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Compass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Diplomacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Machinery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Physics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Astronomy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Acoustics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Banking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Printing Press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sailing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pottery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Animal husbandry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Trapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Plows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Writing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tactics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Architecture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Economics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Metallurgy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Chemistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Navigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Archaeology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Scientific Theory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Industrialization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rifling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Military Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fertilizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Biology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Steam Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dynamite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1850ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1930ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1950ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1970ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2000ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Refrigeration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Radio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Replaceable Parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Railroads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Plastics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Electronics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ballistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Combustion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pharmaceuticals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atomic Theory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Radar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Combined Arms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ecology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Fission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rocketry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Computers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Telecommunications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Telegram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mobile Tactics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Advanced Ballistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Satellites</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Robotics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lasers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Particle Physics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Fusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nanotechnology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Stealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Internet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Space stations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ship armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Terraforming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>graphene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Drone Warfare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gene modification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3D printers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Exoskeletons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Space elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Concrete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1250ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mass Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flintlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Crop rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Paper making</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250bce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000bce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Clone Organs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2040ad on ward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Future tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Synthetic Materials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sustainability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Stirrup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dry dock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Heliocentrism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Iron Working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Wood block printing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>E-commerce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Apprenticeship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Monocular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fire making</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hunting and fishing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Copper working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bronze working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mathematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Capentry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Geology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tactic Research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Weapon Research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Elite Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hardened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shock doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ambushing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Devistating Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Defence doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Formation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pilliging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long Range Logistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -894,7 +811,7 @@
       </rPr>
       <t xml:space="preserve"> Command</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -910,23 +827,23 @@
       </rPr>
       <t xml:space="preserve"> Army</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Swift Formation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sharpshooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assult doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Skirmishing doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -942,23 +859,23 @@
       </rPr>
       <t xml:space="preserve"> Tactic</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ammo Supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Breakthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sailing doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Boarding doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -985,135 +902,135 @@
       </rPr>
       <t>doctrine</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Anti-Air Firepower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Superiority doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dog fighting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Highlevel Manuver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rapid Interception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Extra bomb bay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Carpet Bombing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Devistation doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Extra Supply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>War Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Warhammer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Shortbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Crossbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Longbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Recursive bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Plate Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Partial Plate Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Strip Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flaming Projectiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Landmine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rocket Launcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HE Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sharpnel Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flaming Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Extra Armour Plates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AP Rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Technicians</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Javalin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Heavyshield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Arblaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1129,251 +1046,239 @@
       </rPr>
       <t>mail Armour</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Masonry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000 bce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750 bce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Padded Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Globalisation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Monastic Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>High Speed Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flanking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Anti-Sub Focus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Extra Screening Ship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bigger Armada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lightshield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Supply Ships</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Manuvering Anti-Air</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast Recovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rapid Engagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hydrology Scouting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Top Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Organized Deck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Faster Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ship Grabbing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Naval Ram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mass Assult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Marine Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Field Medic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Use of Terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Commissar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Chivalry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Armor Piercing Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Textile Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bantu Warrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Standing Army + Gunpowder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7.Rework panthons &amp; pantheon wonder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8.Combat overhaul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Land Mobility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Water Mobility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hacking Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CQB Equipments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mercenary Habit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Scout Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Veteran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Barrage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ammo Conservation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reinforced Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Accuracy Doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Firepower Doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Intensive Doctrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Slinger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Camoflage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Recoilless Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Reactive Armour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NBC Suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>00Heal Instantly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>01cStewardship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fire Rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Priating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Anti-Air Focus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Halberd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mechanised Worker</t>
@@ -1431,7 +1336,7 @@
   </si>
   <si>
     <t>Three-masted Ship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Submarines</t>
@@ -1453,239 +1358,239 @@
   </si>
   <si>
     <t>Standing Army</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Skirmisher Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Rifleman</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Wheellock Pistol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No SR UU &amp; Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Spearman</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Armorments20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flintlock50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bronze working10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gunpowder30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Ballista</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Fire Lance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Hand Cannon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Grenadier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Musketeer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Rifling60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mobile Tactics80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Advanced Ballistics100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nanotechnology120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Railguns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gunboat</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Frigade</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Ironclad</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Destroyer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Battleship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Carrier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Missle Crusier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Carrier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Battleship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Missle Crusier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Modern Cavalry</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Advanced Ship Making</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tank</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>AIR</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Airship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Self-propelled Artillery</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>AA Gun</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Flamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Unmanned Turret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Infantry Mortar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Missle System</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Exoskeleton Infantry</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Stealth Bomber</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Spec Ops</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ICBM</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Missile</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Early Missile</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Primitive Arms (+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Classical Arms (+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Medieval Arms (+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Renissance Arms (+2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Industrial Arms (+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Modern Arms (+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Atomic Arms (+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Information Arms (+4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Anti-Air Missile Launcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Anti-tank Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Machine Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1712,43 +1617,43 @@
       </rPr>
       <t>SMG</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Naval Plane Refit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Radar Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Autoloader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Spy Drones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Battle Drones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Railgun</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Railgun Gunboat</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Pioneer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Granary</t>
@@ -1776,23 +1681,23 @@
   </si>
   <si>
     <t>Light Cavalry, Horse Archer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Cavalry, Knights</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Sewage Treatment Plant  Cellular network</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Agricultural Water Storage</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Greenhouse Nutripaste Factory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Healer's Hut</t>
@@ -1802,65 +1707,65 @@
   </si>
   <si>
     <t>Trade Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Stable,Road Network</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Clinic,Lighthouse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Aqueduct</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Sewer,Port</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>WAN Support, Drone Control Centre</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Manual Farm, Manual Plantation,Camp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bakery Brewery Pottery Workshop Textile workshop</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Furniture Workshop</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Guild Complex</t>
   </si>
   <si>
     <t>Fishing ports Coast Fishing Boats</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Hospital Aquaculture</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Deep Sea Fishing Boats</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Agricultural Machinery Factory Mechanised Farm, Mechanised Livestock Farm</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Factory Complex</t>
   </si>
   <si>
     <t>Cannery Soda Factory Tools Factory Textile Factory Furniture Factory Electronic Factory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Electronic Factory</t>
@@ -1879,48 +1784,48 @@
   </si>
   <si>
     <t>Steel Mill Aluminium Mill</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Oil Refinery Cement Works Car Factory Construction Vehicle Factory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Power Grid Hydro Plant</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Solar Plant Recycling Center Nuclear Plant</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Spacecraft Factory</t>
   </si>
   <si>
     <t>Machine Tool Factory Coal Plant Mechanised Mine Oil well</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Offshore Platform</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Stone Works Manual Mine Quarry</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Palace</t>
   </si>
   <si>
     <t>Civilian Blacksmith Jewellery Workshop</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Town Hall</t>
   </si>
   <si>
     <t>City Hall Examination Hall Department of Administration</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Government Complex</t>
@@ -1933,7 +1838,7 @@
   </si>
   <si>
     <t>Ideology Building</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Monument</t>
@@ -1943,7 +1848,7 @@
   </si>
   <si>
     <t>Town Square National Epic</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Theatre</t>
@@ -1953,18 +1858,18 @@
   </si>
   <si>
     <t>Museum,National Museum</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Temple</t>
   </si>
   <si>
     <t>Shrine Shaman's Hut Chaple Altar</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bought Buildings</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Library</t>
@@ -1977,15 +1882,15 @@
   </si>
   <si>
     <t>Schools</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Observatory National Academy of Science</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Research Lab Partical Acclerator</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bio Lab</t>
@@ -2001,7 +1906,7 @@
   </si>
   <si>
     <t>Tea House Café</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Arena</t>
@@ -2020,7 +1925,7 @@
   </si>
   <si>
     <t>Jousing Place</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Mercenary Office</t>
@@ -2030,41 +1935,41 @@
   </si>
   <si>
     <t>Military Vehicle Factory Aircraft Factory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Military Stable Military Blacksmith Dry Dock</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Military Factory Complex Naval Dockyard</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Armour workshop Armory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Military Academy Arsenal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Walls</t>
   </si>
   <si>
     <t>Elite Barracks Weapon Parts Workshop Citadel</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bastion</t>
   </si>
   <si>
     <t>Mobilization department Military Port Trench</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Military Base Arms Testing Ground National Defense Department Weapon Parts Factory Bunker</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bomb Shelter</t>
@@ -2074,797 +1979,1210 @@
   </si>
   <si>
     <t>Trading Post</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Livestock Market Crops Market Mint</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Bank Chartered Company</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>National Reserve National Bank</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Stock Exchange</t>
   </si>
   <si>
     <t>Trading Port</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Export Firm Commercial Area</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>E-commerce Firm Complex</t>
   </si>
   <si>
     <t xml:space="preserve">Telephone Circuit Broadcast Tower Train station </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Highway Network  Airport</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Smeltry</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Worker Settler</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Propeller Fighter Propeller Bomber </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Jet Fighter Jet Bomber</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Scout</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Ship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Units</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Levy Ranged</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Standing Ranged</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Levy Close</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Standing Close</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Rider</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Assult</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Siege</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Ships</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Catapult Ballista</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Mace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Weakpoint Observation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Motorised Infantry Armored Cars</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Muskeeter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>The Wheels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Horse Collar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Adventurer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Art Gallery</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Studios</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Javelineers</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Skirmisher</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Levy Archer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Guerrillas</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Militia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Crossbowman</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Heavy Infantry </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Sharpshooter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Early Paratrooper</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Paratrooper</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Mountaineers</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Marine Corps</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>AA Missle System</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Exoskeleton Spec Ops</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Mecha</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Wonder</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Huge Airship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>GDR</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Galley Work Ships</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Modern Work Ship</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Chariot</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Pike and Shot</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Modern Conscript</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Armored Train</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Land Crusier</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Primal Warrior</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Galley</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Humvee Helicopter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Tank Destroyer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Double handed Mace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pistoleer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Field Gun Bombard</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Rocket Artillery</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Hand Cannon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>North African</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nile River Flood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Berbers Croshair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cross saharan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Melting Pot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cathage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CNT-FAI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Maya</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Omlec</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Aztec</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Inca</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Brasil</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Mexican</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>American</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Hinduism</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>ELZN</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美洲文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>地中海文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>欧洲文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北非文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>南非文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>西亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>游牧文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>南亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>东亚文明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>腾格里</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>凯尔特/北欧神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>高卢/日耳曼文化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>法兰克/神罗</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>教宗制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>法国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>纳粹德国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>英国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美利坚</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>王政罗马</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>斯巴达/马其顿/罗马</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>拜占庭</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>教宗制度/耶路撒冷骑士国家</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>意大利各邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>意大利统一/希腊独立</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>法西斯意大利</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>阿拉伯黄金时代</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>第一哈里发国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>凯末尔土耳其</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>纳赛尔主义</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美索不达米亚诸城邦/波斯帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>教法制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>帕夏制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>易卜拉欣</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>周朝分封</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>百家思想</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>军功爵制度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>藩王/大名</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>唐宋科举</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>（架空）黄巾天师</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>辛亥革命</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>光头民国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>政党政府日本/孙文民国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>军国主义日本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>东大</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>埃及神系</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>迦太基</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>汉尼拔迦太基</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>埃米尔</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>柏柏尔国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>汉萨同盟/维京扩张</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>东德/苏联/北欧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>马赫诺的黑军</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>南斯拉夫</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>所罗门教会/阿吞改革</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>威尼斯，热那亚等</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>（架空）迦太基延续</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>多神</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>一神</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>酋邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>求智</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>求战</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>求财</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>封建</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>集权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>神权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>人文</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>革命</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>自由</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>保守</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>法西斯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>社会</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无政府</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>明治帝国主义/（架空）完全体天朝</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>西葡殖民帝国/奥匈多元帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>奥斯曼海权/帖木儿陆权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>（架空）埃及延续/（架空）埃塞俄比亚帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>马穆鲁克/（架空）埃及神系延续</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>神系：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特色兵种</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>制度：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>昊天上帝</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基督教（扩张传教）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基督教（牧首区）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>初始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美索不达米亚神系/祆教</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>希腊/罗马神系/密特拉教</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>古希腊哲学（雅典）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>加洛林文艺复兴</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>丝绸之路</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>伦巴第王国/意大利诸城邦</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>西罗马帝国</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>心学改革/顾炎武，王夫之等思想</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>新教/启蒙时代</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>英法海权/德，俄陆权</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>阿萨比亚</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>农耕文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>农耕/海洋文明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特征</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>时期：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文明：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>初始科技</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>民族史诗特色</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特定弱特色单位</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特色纪念碑，崇拜建筑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特色建筑/单位晋升</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>渔猎文明（）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>社稷</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>海洋文明（文明摇篮）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>农耕文明（大禹治水）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Tiwanaku</t>
+  </si>
+  <si>
+    <t>3000bce -2000bce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>750 bce-250bce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forging</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matter Decompressor</t>
+  </si>
+  <si>
+    <t>Dyson Swarm</t>
+  </si>
+  <si>
+    <t>Warp Drive</t>
+  </si>
+  <si>
+    <t>Cybernetics</t>
+  </si>
+  <si>
+    <t>Adaptive Materials</t>
+  </si>
+  <si>
+    <t>Spaceflight</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Asteroid Mining</t>
+  </si>
+  <si>
+    <t>Virtual Reality</t>
+  </si>
+  <si>
+    <t>Advanced Flight</t>
+  </si>
+  <si>
+    <t>Rocketry</t>
+  </si>
+  <si>
+    <t>Portable Reactors</t>
+  </si>
+  <si>
+    <t>Advanced Drones</t>
+  </si>
+  <si>
+    <t>Space Stations</t>
+  </si>
+  <si>
+    <t>Advanced Rocketry</t>
+  </si>
+  <si>
+    <t>Satellites</t>
+  </si>
+  <si>
+    <t>Combined Arms</t>
+  </si>
+  <si>
+    <t>Space Elevator</t>
+  </si>
+  <si>
+    <t>Nanitic Enhancements</t>
+  </si>
+  <si>
+    <t>Dark Matter</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Nanofibers</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Ballistics</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Advanced Alloys</t>
+  </si>
+  <si>
+    <t>Advanced Simulations</t>
+  </si>
+  <si>
+    <t>Androids</t>
+  </si>
+  <si>
+    <t>Advanced Robotics</t>
+  </si>
+  <si>
+    <t>3D Printers</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Lasers</t>
+  </si>
+  <si>
+    <t>Cloning</t>
+  </si>
+  <si>
+    <t>Degenerate Matter</t>
+  </si>
+  <si>
+    <t>Quark Physics</t>
+  </si>
+  <si>
+    <t>Mechs</t>
+  </si>
+  <si>
+    <t>Biopharmaceuticals</t>
+  </si>
+  <si>
+    <t>Advanced Lasers</t>
+  </si>
+  <si>
+    <t>LiDAR</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Advanced Kinetics (replacement of railguns)</t>
+  </si>
+  <si>
+    <t>Synthetic Materials</t>
+  </si>
+  <si>
+    <t>Bacteriophages</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadron Physics</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Energy</t>
+  </si>
+  <si>
+    <t>Synthetic Fluids</t>
+  </si>
+  <si>
+    <t>Nuclear Fusion</t>
+  </si>
+  <si>
+    <t>Clone Organs</t>
+  </si>
+  <si>
+    <t>Generative Intelligence</t>
+  </si>
+  <si>
+    <t>Gene Modification</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Nanites</t>
+  </si>
+  <si>
+    <t>Synthesization</t>
+  </si>
+  <si>
+    <t>Advanced Particle Physics</t>
+  </si>
+  <si>
+    <t>Quantum Theory</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Globalization</t>
+  </si>
+  <si>
+    <t>Terraforming</t>
+  </si>
+  <si>
+    <t>Space Colonization</t>
+  </si>
+  <si>
+    <t>Advanced Stealth</t>
+  </si>
+  <si>
+    <t>Quantum Computers</t>
+  </si>
+  <si>
+    <t>Exoskeletons</t>
+  </si>
+  <si>
+    <t>Particle Physics</t>
+  </si>
+  <si>
+    <t>Nuclear Fission</t>
+  </si>
+  <si>
+    <t>Atomic Theory</t>
+  </si>
+  <si>
+    <t>Designer Genes</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>Antimatter (The process of creating antimatter is called annhilation)</t>
+  </si>
+  <si>
+    <t>Deep Sea Mining</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphene</t>
+  </si>
+  <si>
+    <t>Uranium Enrichment</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Metagenesis</t>
+  </si>
+  <si>
+    <t>Starships</t>
+  </si>
+  <si>
+    <t>Advanced Satellites</t>
+  </si>
+  <si>
+    <t>Future Era</t>
+  </si>
+  <si>
+    <t>Information Era</t>
+  </si>
+  <si>
+    <t>Atomic Era</t>
+  </si>
+  <si>
+    <t>2040ad</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2030ad </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020ad</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Regrouping</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Guard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra Sailor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balista Turret</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield Wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greekfire Turret</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra Cannon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Hull</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke screen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1950ad-1990ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1350ad-1600ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0ad-1250ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700ad-1800ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Control</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1850ad-1940ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1950ad-2000ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium Enrichment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiDAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010ad-2050ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote Control</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generative Intelligence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantum Theory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphene</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relativity Theory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;3000bce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2977,8 +3295,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2997,8 +3321,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3006,99 +3378,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{268CC66C-31C3-4B3B-9968-401B7336AC21}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{C554C626-1A9D-4C78-84D8-5E282DB67556}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3625,72 +4100,72 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1">
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1">
+    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1">
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1">
-      <c r="A6" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="24"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -3698,90 +4173,76 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="38.4" customHeight="1">
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="38.4" customHeight="1">
+    <row r="1" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+    </row>
+    <row r="2" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3801,455 +4262,921 @@
         <v>5</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="38.4" customHeight="1">
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>26</v>
+      </c>
+      <c r="AC2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC5" s="49"/>
+      <c r="AE5" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="38.4" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="38.4" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="38.4" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="W7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="38.4" customHeight="1">
+    </row>
+    <row r="8" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>148</v>
+      <c r="S8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="38.4" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" s="52" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="38.4" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>524</v>
+      <c r="F10" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>164</v>
+      <c r="K10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>131</v>
+        <v>81</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="38.4" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="S11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="38.4" customHeight="1">
-      <c r="H12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="38.4" customHeight="1">
-      <c r="T13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="9">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B13 B10:B11">
+    <cfRule type="duplicateValues" dxfId="19" priority="29"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CEC18-D5B4-4F4B-9A42-44E7072E5DD5}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="19.375" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="47" t="s">
+        <v>763</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>752</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>750</v>
+      </c>
+      <c r="J1" s="40">
+        <v>2050</v>
+      </c>
+      <c r="K1" s="40">
+        <v>2060</v>
+      </c>
+      <c r="L1" s="40">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>741</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F092E08-D523-4072-921C-A893C302A87B}">
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -4257,9 +5184,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="81.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="81.75" customHeight="1">
+    <row r="1" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4330,343 +5257,343 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1">
+    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="143.25" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>426</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="S5" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q3" s="15" t="s">
+      <c r="I6" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="O7" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="R3" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="81.75" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="S7" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="81.75" customHeight="1">
-      <c r="C5" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="G10" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q6" s="21" t="s">
+      <c r="U10" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="H11" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="K11" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="81.75" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="81.75" customHeight="1">
-      <c r="D9" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="R9" s="15" t="s">
+      <c r="T11" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="S9" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="U9" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="81.75" customHeight="1">
-      <c r="C10" s="15" t="s">
+      <c r="H12" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="N12" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="P12" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q12" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U12" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="81.75" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="81.75" customHeight="1">
-      <c r="C12" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>500</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F8F12-7BF1-4F36-BA5D-5C77B151C0AF}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
@@ -4676,44 +5603,44 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="24.75" customHeight="1">
+    <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>90</v>
@@ -4722,22 +5649,22 @@
         <v>76</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>75</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>95</v>
@@ -4746,440 +5673,440 @@
         <v>100</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="17" t="s">
         <v>104</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP1" s="16" t="s">
-        <v>156</v>
-      </c>
       <c r="AQ1" s="16" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="24.75" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="Z3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="24.75" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="J4" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AO4" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="24.75" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="N5" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="R5" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="W6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA6" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="W6" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>535</v>
-      </c>
       <c r="AB6" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AK6" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="24.75" customHeight="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="G7" s="15"/>
       <c r="I7" s="18" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="N7" s="15"/>
       <c r="R7" s="19" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="AG7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="24.75" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="Z8" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AC8" s="15"/>
       <c r="AD8" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="AK8" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="24.75" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="N9" s="18"/>
       <c r="U9" s="15" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AC9" s="19" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="24.75" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="T10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="AE10" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="AQ10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="24.75" customHeight="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="19" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="AR11" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="V12" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH12" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI12" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR12" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH13" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI13" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="AJ16" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>353</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="AI17" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="Z12" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD12" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH12" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI12" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AR12" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="24.75" customHeight="1">
-      <c r="L13" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="T13" s="15" t="s">
+      <c r="AL17" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="Z13" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH13" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI13" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" ht="24.75" customHeight="1">
-      <c r="Z14" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH14" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="24.75" customHeight="1">
-      <c r="Z15" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA16" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD16" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI16" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="AJ16" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="24.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>377</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL17" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="24.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="AA18" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="AB18" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="AC18" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AN18" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="Z14:Z15">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
@@ -5217,22 +6144,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="24.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -5247,532 +6174,555 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1">
+    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.6" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B5" t="s">
+      <c r="D15" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B6" t="s">
+      <c r="C20" t="s">
+        <v>495</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="21" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>533</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>261</v>
       </c>
-      <c r="D8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.6" customHeight="1">
-      <c r="B16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A22" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B24" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A25" t="s">
-        <v>381</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C25" t="s">
-        <v>557</v>
-      </c>
-      <c r="D25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A29" t="s">
-        <v>382</v>
-      </c>
-      <c r="B29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A30" t="s">
-        <v>383</v>
-      </c>
-      <c r="B30" t="s">
-        <v>371</v>
-      </c>
-      <c r="C30" t="s">
-        <v>388</v>
-      </c>
-      <c r="D30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A32" t="s">
-        <v>384</v>
-      </c>
-      <c r="B32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E32" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" t="s">
-        <v>296</v>
-      </c>
-      <c r="G32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" t="s">
-        <v>394</v>
-      </c>
-      <c r="F33" t="s">
-        <v>392</v>
-      </c>
-      <c r="G33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A36" t="s">
-        <v>385</v>
-      </c>
-      <c r="B36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A38" t="s">
-        <v>386</v>
-      </c>
-      <c r="B38" t="s">
-        <v>395</v>
-      </c>
-      <c r="C38" t="s">
-        <v>396</v>
-      </c>
-      <c r="D38" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B39" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A47" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="24.6" customHeight="1">
-      <c r="A49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="24.6" customHeight="1">
-      <c r="A50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="24.6" customHeight="1">
-      <c r="A51" t="s">
-        <v>285</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFA452-D8B2-444A-A04B-53CFD30C9CB5}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -5781,9 +6731,9 @@
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5809,10 +6759,10 @@
         <v>22</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5829,10 +6779,10 @@
         <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5849,7 +6799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1">
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5874,7 +6824,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1">
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5890,10 +6840,10 @@
         <v>62</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5917,10 +6867,10 @@
         <v>64</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5932,7 +6882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5952,12 +6902,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>43</v>
@@ -5966,7 +6916,7 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -5975,16 +6925,16 @@
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5995,436 +6945,436 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="68.25" customHeight="1">
-      <c r="B1" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F2" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" t="s">
-        <v>687</v>
-      </c>
-      <c r="J2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D3" t="s">
-        <v>664</v>
-      </c>
-      <c r="F3" t="s">
-        <v>663</v>
-      </c>
-      <c r="H3" t="s">
-        <v>685</v>
-      </c>
-      <c r="J3" t="s">
-        <v>622</v>
-      </c>
-      <c r="M3" t="s">
-        <v>587</v>
-      </c>
-      <c r="N3" t="s">
-        <v>576</v>
-      </c>
-      <c r="P3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D4" t="s">
-        <v>661</v>
-      </c>
-      <c r="F4" t="s">
-        <v>610</v>
-      </c>
-      <c r="H4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B5" t="s">
-        <v>589</v>
-      </c>
-      <c r="D5" t="s">
-        <v>596</v>
-      </c>
-      <c r="F5" t="s">
-        <v>607</v>
-      </c>
-      <c r="H5" t="s">
-        <v>611</v>
-      </c>
-      <c r="J5" t="s">
-        <v>623</v>
-      </c>
-      <c r="P5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6" t="s">
-        <v>665</v>
-      </c>
-      <c r="F6" t="s">
-        <v>603</v>
-      </c>
-      <c r="H6" t="s">
-        <v>612</v>
-      </c>
-      <c r="J6" t="s">
-        <v>603</v>
-      </c>
-      <c r="P6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D7" t="s">
-        <v>597</v>
-      </c>
-      <c r="F7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H7" t="s">
-        <v>613</v>
-      </c>
-      <c r="J7" t="s">
-        <v>624</v>
-      </c>
-      <c r="P7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F8" t="s">
-        <v>667</v>
-      </c>
-      <c r="H8" t="s">
-        <v>667</v>
-      </c>
-      <c r="J8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B9" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" t="s">
-        <v>668</v>
-      </c>
-      <c r="F9" t="s">
-        <v>625</v>
-      </c>
-      <c r="H9" t="s">
-        <v>614</v>
-      </c>
-      <c r="J9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>641</v>
-      </c>
-      <c r="B10" t="s">
-        <v>669</v>
-      </c>
-      <c r="D10" t="s">
-        <v>598</v>
-      </c>
-      <c r="F10" t="s">
-        <v>609</v>
-      </c>
-      <c r="H10" t="s">
-        <v>615</v>
-      </c>
-      <c r="J10" t="s">
-        <v>609</v>
-      </c>
-      <c r="P10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B11" t="s">
-        <v>591</v>
-      </c>
-      <c r="D11" t="s">
-        <v>599</v>
-      </c>
-      <c r="F11" t="s">
-        <v>608</v>
-      </c>
-      <c r="H11" t="s">
-        <v>616</v>
-      </c>
-      <c r="J11" t="s">
-        <v>655</v>
-      </c>
-      <c r="P11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" t="s">
-        <v>600</v>
-      </c>
-      <c r="F12" t="s">
-        <v>673</v>
-      </c>
-      <c r="H12" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B13" t="s">
-        <v>672</v>
-      </c>
-      <c r="D13" t="s">
-        <v>652</v>
-      </c>
-      <c r="F13" t="s">
-        <v>653</v>
-      </c>
-      <c r="H13" t="s">
-        <v>651</v>
-      </c>
-      <c r="J13" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B14" t="s">
-        <v>592</v>
-      </c>
-      <c r="D14" t="s">
-        <v>601</v>
-      </c>
-      <c r="H14" t="s">
-        <v>617</v>
-      </c>
-      <c r="P14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>646</v>
-      </c>
-      <c r="B15" t="s">
-        <v>595</v>
-      </c>
-      <c r="H15" t="s">
-        <v>619</v>
-      </c>
-      <c r="J15" t="s">
-        <v>633</v>
-      </c>
-      <c r="P15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>647</v>
-      </c>
-      <c r="B16" t="s">
-        <v>594</v>
-      </c>
-      <c r="F16" t="s">
-        <v>605</v>
-      </c>
-      <c r="H16" t="s">
-        <v>618</v>
-      </c>
-      <c r="P16" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>648</v>
-      </c>
-      <c r="B17" t="s">
-        <v>593</v>
-      </c>
-      <c r="D17" t="s">
-        <v>602</v>
-      </c>
-      <c r="F17" t="s">
-        <v>605</v>
-      </c>
-      <c r="H17" t="s">
-        <v>620</v>
-      </c>
-      <c r="P17" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>649</v>
-      </c>
-      <c r="B18" t="s">
-        <v>628</v>
-      </c>
-      <c r="D18" t="s">
-        <v>630</v>
-      </c>
-      <c r="F18" t="s">
-        <v>606</v>
-      </c>
-      <c r="H18" t="s">
-        <v>621</v>
-      </c>
-      <c r="J18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="68.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>650</v>
-      </c>
-      <c r="B19" t="s">
-        <v>629</v>
-      </c>
-      <c r="D19" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="68.25" customHeight="1">
-      <c r="P20" s="23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H3" t="s">
+        <v>661</v>
+      </c>
+      <c r="J3" t="s">
+        <v>598</v>
+      </c>
+      <c r="M3" t="s">
+        <v>563</v>
+      </c>
+      <c r="N3" t="s">
+        <v>552</v>
+      </c>
+      <c r="P3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H4" t="s">
+        <v>635</v>
+      </c>
+      <c r="J4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" t="s">
+        <v>583</v>
+      </c>
+      <c r="H5" t="s">
+        <v>587</v>
+      </c>
+      <c r="J5" t="s">
+        <v>599</v>
+      </c>
+      <c r="P5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" t="s">
+        <v>588</v>
+      </c>
+      <c r="J6" t="s">
+        <v>579</v>
+      </c>
+      <c r="P6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F7" t="s">
+        <v>580</v>
+      </c>
+      <c r="H7" t="s">
+        <v>589</v>
+      </c>
+      <c r="J7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" t="s">
+        <v>608</v>
+      </c>
+      <c r="F8" t="s">
+        <v>643</v>
+      </c>
+      <c r="H8" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F9" t="s">
+        <v>601</v>
+      </c>
+      <c r="H9" t="s">
+        <v>590</v>
+      </c>
+      <c r="J9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" t="s">
+        <v>585</v>
+      </c>
+      <c r="H10" t="s">
+        <v>591</v>
+      </c>
+      <c r="J10" t="s">
+        <v>585</v>
+      </c>
+      <c r="P10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F11" t="s">
+        <v>584</v>
+      </c>
+      <c r="H11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J11" t="s">
+        <v>631</v>
+      </c>
+      <c r="P11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F12" t="s">
+        <v>649</v>
+      </c>
+      <c r="H12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D13" t="s">
+        <v>628</v>
+      </c>
+      <c r="F13" t="s">
+        <v>629</v>
+      </c>
+      <c r="H13" t="s">
+        <v>627</v>
+      </c>
+      <c r="J13" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" t="s">
+        <v>577</v>
+      </c>
+      <c r="H14" t="s">
+        <v>593</v>
+      </c>
+      <c r="P14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" t="s">
+        <v>571</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="J15" t="s">
+        <v>609</v>
+      </c>
+      <c r="P15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" t="s">
+        <v>570</v>
+      </c>
+      <c r="F16" t="s">
+        <v>581</v>
+      </c>
+      <c r="H16" t="s">
+        <v>594</v>
+      </c>
+      <c r="P16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="F17" t="s">
+        <v>581</v>
+      </c>
+      <c r="H17" t="s">
+        <v>596</v>
+      </c>
+      <c r="P17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D18" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18" t="s">
+        <v>582</v>
+      </c>
+      <c r="H18" t="s">
+        <v>597</v>
+      </c>
+      <c r="J18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF3EA9-8A80-49C3-85FB-59FE3F82CBFB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6432,53 +7382,53 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="39.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="39.75" customHeight="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="39.75" customHeight="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.75" customHeight="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.75" customHeight="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B5" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49562B-976C-4A1A-9434-58C1F9D2CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207DCE6E-D8F6-4D28-8D2B-470063ECE5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="799">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -638,10 +638,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Gene modification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D printers</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -687,10 +683,6 @@
   </si>
   <si>
     <t>Synthetic Materials</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sustainability</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1081,10 +1073,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Bigger Armada</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Lightshield</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1620,10 +1608,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Naval Plane Refit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Radar Support</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3047,10 +3031,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Extra Sailor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Balista Turret</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3071,10 +3051,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>smoke screen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1950ad-1990ad</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3103,10 +3079,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1950ad-2000ad</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Uranium Enrichment</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3148,6 +3120,102 @@
   </si>
   <si>
     <t>&lt;3000bce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantum Computer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biodegradeables</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superconductor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nanobot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haptics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1945ad-2000ad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Engines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planet Colonization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dyson Array</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Womb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space Exploration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asteroid Mining</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designer Genetic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone Swarm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Science</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underwater Development</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartridge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carriage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra Oarers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stealth Paint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke Screen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombardment Focus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enlarged Armada</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier Refit</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3302,7 +3370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3369,6 +3437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3398,7 +3472,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3523,14 +3597,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3541,20 +3618,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4108,7 +4179,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4131,7 +4202,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4140,32 +4211,32 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="45"/>
+      <c r="A8" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4180,69 +4251,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>781</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
-        <v>665</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+    <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
+        <v>760</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47" t="s">
+        <v>759</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47" t="s">
+        <v>763</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47" t="s">
         <v>766</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="46" t="s">
-        <v>773</v>
-      </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-    </row>
-    <row r="2" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+    </row>
+    <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4330,8 +4398,17 @@
       <c r="AC2">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="C4" s="5" t="s">
         <v>84</v>
@@ -4341,7 +4418,7 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>10</v>
@@ -4352,24 +4429,21 @@
       <c r="J4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="5" t="s">
         <v>136</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>112</v>
@@ -4381,16 +4455,16 @@
         <v>132</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>142</v>
+        <v>772</v>
+      </c>
+      <c r="AE4" s="45" t="s">
+        <v>790</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -4398,7 +4472,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>70</v>
@@ -4407,7 +4481,7 @@
         <v>68</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>93</v>
@@ -4416,46 +4490,57 @@
         <v>102</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>115</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>120</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="AC5" s="49"/>
+        <v>764</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>777</v>
+      </c>
       <c r="AE5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>69</v>
@@ -4466,9 +4551,6 @@
       <c r="M6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="O6" s="5" t="s">
         <v>97</v>
       </c>
@@ -4488,7 +4570,7 @@
         <v>116</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>123</v>
@@ -4497,22 +4579,25 @@
         <v>119</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>777</v>
+        <v>225</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>775</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>13</v>
@@ -4523,8 +4608,14 @@
       <c r="L7" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="M7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>103</v>
@@ -4535,20 +4626,17 @@
       <c r="Z7" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4556,13 +4644,13 @@
         <v>83</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>11</v>
@@ -4571,13 +4659,13 @@
         <v>71</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>79</v>
@@ -4603,20 +4691,26 @@
       <c r="AA8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AC8" s="52" t="s">
-        <v>775</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>33</v>
@@ -4624,9 +4718,15 @@
       <c r="M9" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="N9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="R9" s="5" t="s">
         <v>98</v>
       </c>
@@ -4640,18 +4740,24 @@
         <v>133</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD9" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>85</v>
@@ -4660,10 +4766,10 @@
         <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>14</v>
@@ -4672,16 +4778,16 @@
         <v>74</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>110</v>
@@ -4698,14 +4804,26 @@
       <c r="AA10" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>6</v>
@@ -4714,16 +4832,16 @@
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>100</v>
+        <v>145</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>99</v>
@@ -4743,7 +4861,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="W1:AA1"/>
@@ -4766,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CEC18-D5B4-4F4B-9A42-44E7072E5DD5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4776,25 +4894,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
-        <v>763</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="41" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J1" s="40">
         <v>2050</v>
@@ -4809,294 +4927,294 @@
     <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="27" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="35" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="35" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>711</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>764</v>
+        <v>707</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>758</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>707</v>
+        <v>704</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>703</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H9" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>702</v>
-      </c>
       <c r="M9" s="27" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>695</v>
-      </c>
       <c r="K10" s="27" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>768</v>
+        <v>688</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>762</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="28" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5105,10 +5223,10 @@
       <c r="G14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M14" s="27"/>
     </row>
@@ -5121,11 +5239,11 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5139,10 +5257,10 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,331 +5377,331 @@
     </row>
     <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="H2" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>390</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O4" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="V4" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>412</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="Q6" s="21" t="s">
         <v>424</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="N7" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>434</v>
-      </c>
       <c r="O7" s="19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="M9" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="U9" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="U10" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="T11" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="L12" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="P12" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="Q12" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -5607,40 +5725,40 @@
   <sheetData>
     <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>90</v>
@@ -5649,22 +5767,22 @@
         <v>76</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>75</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>95</v>
@@ -5676,10 +5794,10 @@
         <v>136</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>109</v>
@@ -5700,7 +5818,7 @@
         <v>117</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>118</v>
@@ -5715,7 +5833,7 @@
         <v>129</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM1" s="16" t="s">
         <v>127</v>
@@ -5727,382 +5845,382 @@
         <v>139</v>
       </c>
       <c r="AP1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ1" s="16" t="s">
         <v>138</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Z3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" t="s">
+        <v>497</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO4" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="J4" t="s">
-        <v>501</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N5" t="s">
+        <v>502</v>
+      </c>
+      <c r="R5" t="s">
         <v>504</v>
       </c>
-      <c r="N5" t="s">
-        <v>506</v>
-      </c>
-      <c r="R5" t="s">
-        <v>508</v>
-      </c>
       <c r="Y5" s="18" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="W6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AB6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AK6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G7" s="15"/>
       <c r="I7" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N7" s="15"/>
       <c r="R7" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AC8" s="15"/>
       <c r="AD8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AK8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N9" s="18"/>
       <c r="U9" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AC9" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="T10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AE10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AQ10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="19" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AR11" s="15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T12" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH12" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="V12" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD12" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH12" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="AI12" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AR12" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AH13" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AI13" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z14" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AH14" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z15" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AI16" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AJ16" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI17" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AB18" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AC18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -6148,18 +6266,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -6176,13 +6294,13 @@
     </row>
     <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6308,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6201,98 +6319,98 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="C8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
-      </c>
       <c r="E8" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
         <v>118</v>
@@ -6300,419 +6418,424 @@
     </row>
     <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="C14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
         <v>202</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>222</v>
+        <v>248</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>758</v>
+        <v>215</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
         <v>224</v>
-      </c>
-      <c r="C27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>759</v>
+        <v>247</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>760</v>
+        <v>308</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>755</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>363</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" t="s">
+        <v>366</v>
+      </c>
+      <c r="F33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" t="s">
         <v>360</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F36" s="50" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" t="s">
         <v>367</v>
       </c>
-      <c r="C32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D32" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" t="s">
-        <v>370</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C38" t="s">
         <v>368</v>
       </c>
-      <c r="G33" t="s">
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>362</v>
-      </c>
-      <c r="B38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>259</v>
       </c>
-      <c r="E38" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +6882,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6779,7 +6902,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,7 +6963,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,7 +6990,7 @@
         <v>64</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6907,7 +7030,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>43</v>
@@ -6916,7 +7039,7 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -6925,13 +7048,13 @@
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6945,7 +7068,7 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,399 +7096,399 @@
   <sheetData>
     <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>561</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" t="s">
         <v>583</v>
       </c>
-      <c r="H5" t="s">
-        <v>587</v>
-      </c>
       <c r="J5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H9" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="P11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B13" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F13" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B14" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="P15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H16" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H17" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B18" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H18" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B19" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D19" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P20" s="23" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -7386,45 +7509,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207DCE6E-D8F6-4D28-8D2B-470063ECE5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5594179-C076-4A23-B75B-145A936BDB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="808">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3216,6 +3216,42 @@
   </si>
   <si>
     <t>Carrier Refit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartography</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personality Array</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antimatter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryo Sleep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadron Physic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railgun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gauss Rifle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future Arms (+4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Caine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3472,7 +3508,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3609,6 +3645,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,13 +3663,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4215,10 +4254,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>251</v>
       </c>
@@ -4233,10 +4272,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4253,62 +4292,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50" t="s">
         <v>661</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50" t="s">
         <v>662</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>760</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>759</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>761</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50" t="s">
         <v>780</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
     </row>
     <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4429,6 +4468,9 @@
       <c r="J4" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="O4" s="5" t="s">
         <v>159</v>
       </c>
@@ -4463,8 +4505,14 @@
       <c r="AF4" s="5" t="s">
         <v>788</v>
       </c>
+      <c r="AH4" s="5" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -4519,11 +4567,11 @@
       <c r="AG5" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="AH5" s="5" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="B6" s="7" t="s">
         <v>162</v>
       </c>
@@ -4598,7 +4646,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4632,14 +4682,14 @@
       <c r="AD7" s="5" t="s">
         <v>771</v>
       </c>
+      <c r="AH7" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="AI7" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
@@ -4691,21 +4741,17 @@
       <c r="AA8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>789</v>
-      </c>
       <c r="AE8" s="5" t="s">
         <v>149</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="AH8" s="5" t="s">
-        <v>783</v>
-      </c>
     </row>
     <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D9" s="7" t="s">
         <v>87</v>
       </c>
@@ -4745,20 +4791,20 @@
       <c r="AA9" s="5" t="s">
         <v>767</v>
       </c>
+      <c r="AC9" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="AD9" s="45" t="s">
         <v>768</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>324</v>
+        <v>804</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
@@ -4801,17 +4847,11 @@
       <c r="Y10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="AB10" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="AD10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>142</v>
+      <c r="AE10" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="AG10" s="5" t="s">
         <v>786</v>
@@ -4857,6 +4897,18 @@
       </c>
       <c r="Z11" s="5" t="s">
         <v>127</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -4884,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CEC18-D5B4-4F4B-9A42-44E7072E5DD5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4894,11 +4946,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="41" t="s">
         <v>105</v>
       </c>
@@ -6264,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6557,7 +6609,7 @@
       <c r="C23" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="48" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6568,10 +6620,10 @@
       <c r="C24" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="46" t="s">
         <v>753</v>
       </c>
     </row>
@@ -6621,10 +6673,10 @@
       <c r="C28" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="46" t="s">
         <v>754</v>
       </c>
     </row>
@@ -6641,10 +6693,10 @@
       <c r="D29" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="46" t="s">
         <v>756</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="46" t="s">
         <v>755</v>
       </c>
       <c r="G29" s="13"/>
@@ -6662,10 +6714,10 @@
       <c r="D30" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="46" t="s">
         <v>795</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="47" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6710,26 +6762,26 @@
       <c r="E33" t="s">
         <v>366</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="52" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="47" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="47" t="s">
         <v>796</v>
       </c>
     </row>
@@ -6749,7 +6801,7 @@
       <c r="E36" t="s">
         <v>360</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="47" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6785,56 +6837,67 @@
     </row>
     <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>246</v>
+        <v>806</v>
+      </c>
+      <c r="B40" t="s">
+        <v>805</v>
+      </c>
+      <c r="C40" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>258</v>
       </c>
     </row>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5594179-C076-4A23-B75B-145A936BDB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D083E-483D-4BCA-B647-7F6F6442CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="810">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>Horseback Riding</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Philosophy</t>
@@ -3175,10 +3171,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Drone Swarm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Data Science</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3252,6 +3244,22 @@
   </si>
   <si>
     <t>Robot Caine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Fire making</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5Agriculture</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7Hunting and fishing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronization</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3654,6 +3662,9 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3662,9 +3673,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4218,7 +4226,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,7 +4249,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4250,32 +4258,32 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="50"/>
       <c r="C6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="49"/>
+      <c r="A8" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="50"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4292,62 +4300,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>774</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50" t="s">
+      <c r="A1" s="51" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
-        <v>662</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
         <v>760</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
-        <v>759</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50" t="s">
-        <v>780</v>
-      </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50" t="s">
-        <v>766</v>
-      </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
+        <v>765</v>
+      </c>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4369,546 +4377,555 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>159</v>
+        <v>797</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>151</v>
+        <v>335</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE4" s="45" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>806</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>115</v>
+        <v>142</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>773</v>
+        <v>119</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AD5" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF5" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="AE5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>778</v>
-      </c>
       <c r="AG5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="AG8" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>808</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="P9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AA9" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD9" s="45" t="s">
         <v>767</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD9" s="45" t="s">
-        <v>768</v>
-      </c>
       <c r="AF9" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -4946,25 +4963,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51" t="s">
-        <v>757</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J1" s="40">
         <v>2050</v>
@@ -4979,294 +4996,294 @@
     <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="27"/>
       <c r="H5" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5275,10 +5292,10 @@
       <c r="G14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M14" s="27"/>
     </row>
@@ -5291,11 +5308,11 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5309,10 +5326,10 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5429,331 +5446,331 @@
     </row>
     <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="P2" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="V2" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>390</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>397</v>
-      </c>
       <c r="O4" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="T4" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="V4" s="19" t="s">
         <v>406</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q5" s="19" t="s">
+      <c r="S5" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="P6" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="O7" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="S7" s="19" t="s">
         <v>498</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="R9" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="R9" s="15" t="s">
+      <c r="U9" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="H10" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="O10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="U10" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="J11" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="P11" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="P11" s="19" t="s">
+      <c r="T11" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="N12" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q12" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q12" s="15" t="s">
+      <c r="U12" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5777,502 +5794,502 @@
   <sheetData>
     <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="V1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="Z1" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AH1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z3" t="s">
         <v>518</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" t="s">
+        <v>496</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="J4" t="s">
-        <v>497</v>
-      </c>
-      <c r="T4" s="15" t="s">
+      <c r="AA4" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AC4" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO4" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N5" t="s">
+        <v>501</v>
+      </c>
+      <c r="R5" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y5" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="R5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AB6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP6" s="15" t="s">
         <v>512</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G7" s="15"/>
       <c r="I7" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N7" s="15"/>
       <c r="R7" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG7" t="s">
         <v>521</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="U8" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="W8" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="Z8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AC8" s="15"/>
       <c r="AD8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK8" t="s">
         <v>508</v>
       </c>
-      <c r="AG8" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>509</v>
-      </c>
       <c r="AP8" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N9" s="18"/>
       <c r="U9" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AC9" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="T10" t="s">
+        <v>529</v>
+      </c>
+      <c r="W10" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="T10" t="s">
-        <v>530</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="AC10" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AQ10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q11" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE11" s="15" t="s">
         <v>531</v>
-      </c>
-      <c r="AB11" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>532</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR11" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L12" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="T12" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="V12" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z12" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="V12" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="AD12" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AI12" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AR12" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AH13" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AI13" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z14" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH14" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z15" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA16" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="AA16" s="15" t="s">
-        <v>339</v>
-      </c>
       <c r="AD16" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI16" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="AI16" s="15" t="s">
-        <v>478</v>
-      </c>
       <c r="AJ16" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI17" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="AI17" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="AL17" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA18" t="s">
         <v>515</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>523</v>
+      </c>
+      <c r="AN18" t="s">
         <v>516</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>524</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -6326,10 +6343,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" t="s">
-        <v>273</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -6346,13 +6363,13 @@
     </row>
     <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,10 +6377,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,534 +6388,534 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
         <v>170</v>
       </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
         <v>235</v>
-      </c>
-      <c r="E15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
         <v>189</v>
-      </c>
-      <c r="C17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>192</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>193</v>
-      </c>
-      <c r="E18" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" t="s">
         <v>195</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
         <v>199</v>
       </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
-        <v>215</v>
-      </c>
       <c r="D24" s="46" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
         <v>206</v>
       </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
         <v>216</v>
       </c>
-      <c r="C33" t="s">
-        <v>217</v>
-      </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>366</v>
-      </c>
-      <c r="F33" s="52" t="s">
         <v>365</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" t="s">
         <v>367</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
         <v>368</v>
-      </c>
-      <c r="D38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B40" t="s">
+        <v>803</v>
+      </c>
+      <c r="C40" t="s">
         <v>805</v>
-      </c>
-      <c r="C40" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6921,217 +6938,217 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
         <v>249</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>250</v>
-      </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7159,399 +7176,399 @@
   <sheetData>
     <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>557</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H2" t="s">
         <v>658</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>646</v>
-      </c>
-      <c r="H2" t="s">
-        <v>659</v>
-      </c>
-      <c r="J2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" t="s">
         <v>632</v>
       </c>
-      <c r="D4" t="s">
-        <v>633</v>
-      </c>
       <c r="F4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" t="s">
         <v>624</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J13" t="s">
         <v>625</v>
-      </c>
-      <c r="H13" t="s">
-        <v>623</v>
-      </c>
-      <c r="J13" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P20" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -7572,45 +7589,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" t="s">
         <v>650</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>651</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>652</v>
-      </c>
-      <c r="D2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D083E-483D-4BCA-B647-7F6F6442CF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1AB1B-CC75-4F84-B386-FC3437BD0D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="808">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2416,10 +2416,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>教法制度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>帕夏制度</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2432,14 +2428,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>百家思想</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>军功爵制度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>藩王/大名</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2624,10 +2612,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>基督教（扩张传教）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>基督教（牧首区）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2644,14 +2628,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>古希腊哲学（雅典）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>加洛林文艺复兴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>丝绸之路</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -3261,6 +3237,22 @@
   <si>
     <t>Synchronization</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨珊王朝</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>军功爵制度，郡县制</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家思想，分封制度</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3516,7 +3508,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3673,6 +3665,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4300,58 +4295,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E982B-F2BD-4380-9554-C8769344FDC4}">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
       <c r="M1" s="51" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
       <c r="W1" s="51" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="X1" s="51"/>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" s="51" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="51"/>
@@ -4486,7 +4481,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>158</v>
@@ -4514,21 +4509,21 @@
         <v>131</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="AE4" s="45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>83</v>
@@ -4561,31 +4556,31 @@
         <v>142</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>119</v>
       </c>
       <c r="X5" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA5" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>769</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,7 +4597,7 @@
         <v>154</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>155</v>
@@ -4629,7 +4624,7 @@
         <v>107</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>122</v>
@@ -4641,24 +4636,24 @@
         <v>224</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>494</v>
@@ -4700,10 +4695,10 @@
         <v>156</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>149</v>
@@ -4756,12 +4751,12 @@
         <v>148</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>86</v>
@@ -4803,22 +4798,22 @@
         <v>132</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="AD9" s="45" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,7 +4827,7 @@
         <v>495</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -4841,7 +4836,7 @@
         <v>145</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>99</v>
@@ -4862,13 +4857,13 @@
         <v>125</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,7 +4893,7 @@
         <v>144</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>98</v>
@@ -4925,7 +4920,7 @@
         <v>141</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -4964,7 +4959,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="52" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
@@ -4972,16 +4967,16 @@
         <v>104</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J1" s="40">
         <v>2050</v>
@@ -4996,294 +4991,294 @@
     <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="26" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="27" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="27"/>
       <c r="H5" s="37" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="35" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="35" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H9" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>693</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>700</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>699</v>
-      </c>
       <c r="K9" s="27" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>692</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="28" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5292,10 +5287,10 @@
       <c r="G14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M14" s="27"/>
     </row>
@@ -5308,11 +5303,11 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5326,10 +5321,10 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -6423,7 +6418,7 @@
         <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F8" t="s">
         <v>259</v>
@@ -6440,7 +6435,7 @@
         <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6638,10 +6633,10 @@
         <v>214</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6691,10 +6686,10 @@
         <v>246</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,10 +6706,10 @@
         <v>307</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -6732,10 +6727,10 @@
         <v>362</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6788,7 +6783,7 @@
         <v>229</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6799,7 +6794,7 @@
         <v>228</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6819,7 +6814,7 @@
         <v>359</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,13 +6849,13 @@
     </row>
     <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B40" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C40" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,7 +6926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7165,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7205,42 +7200,42 @@
     </row>
     <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="J2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M3" t="s">
         <v>558</v>
@@ -7254,27 +7249,27 @@
     </row>
     <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
-        <v>631</v>
+        <v>807</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
         <v>560</v>
@@ -7286,30 +7281,30 @@
         <v>578</v>
       </c>
       <c r="H5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D6" t="s">
-        <v>636</v>
-      </c>
-      <c r="F6" t="s">
-        <v>574</v>
+        <v>605</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>804</v>
       </c>
       <c r="H6" t="s">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="J6" t="s">
         <v>574</v>
@@ -7320,22 +7315,16 @@
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F7" t="s">
-        <v>575</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="H7" t="s">
-        <v>584</v>
+        <v>805</v>
       </c>
       <c r="J7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P7" t="s">
         <v>542</v>
@@ -7343,62 +7332,62 @@
     </row>
     <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="J8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B9" t="s">
         <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B10" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D10" t="s">
         <v>569</v>
       </c>
       <c r="F10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P10" t="s">
         <v>543</v>
@@ -7406,7 +7395,7 @@
     </row>
     <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B11" t="s">
         <v>562</v>
@@ -7414,14 +7403,14 @@
       <c r="D11" t="s">
         <v>570</v>
       </c>
-      <c r="F11" t="s">
-        <v>579</v>
+      <c r="F11" s="53" t="s">
+        <v>575</v>
       </c>
       <c r="H11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P11" t="s">
         <v>542</v>
@@ -7429,44 +7418,44 @@
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D12" t="s">
         <v>571</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H12" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H13" t="s">
+        <v>619</v>
+      </c>
+      <c r="J13" t="s">
         <v>622</v>
-      </c>
-      <c r="J13" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B14" t="s">
         <v>563</v>
@@ -7475,7 +7464,7 @@
         <v>572</v>
       </c>
       <c r="H14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P14" t="s">
         <v>544</v>
@@ -7483,16 +7472,16 @@
     </row>
     <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B15" t="s">
         <v>566</v>
       </c>
       <c r="H15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P15" t="s">
         <v>545</v>
@@ -7500,7 +7489,7 @@
     </row>
     <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
         <v>565</v>
@@ -7509,7 +7498,7 @@
         <v>576</v>
       </c>
       <c r="H16" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P16" t="s">
         <v>546</v>
@@ -7517,7 +7506,7 @@
     </row>
     <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B17" t="s">
         <v>564</v>
@@ -7529,7 +7518,7 @@
         <v>576</v>
       </c>
       <c r="H17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P17" t="s">
         <v>545</v>
@@ -7537,19 +7526,19 @@
     </row>
     <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D18" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F18" t="s">
         <v>577</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J18" t="s">
         <v>577</v>
@@ -7557,10 +7546,10 @@
     </row>
     <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D19" t="s">
         <v>539</v>
@@ -7572,6 +7561,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7589,45 +7583,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1AB1B-CC75-4F84-B386-FC3437BD0D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67984212-5344-40ED-8929-9FF78725A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="809">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3253,6 +3253,10 @@
   <si>
     <t>基督教</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torpedo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3508,7 +3512,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3665,9 +3669,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6330,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6596,6 +6597,9 @@
       <c r="B21" t="s">
         <v>230</v>
       </c>
+      <c r="C21" s="46" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6624,6 +6628,9 @@
       <c r="D23" s="48" t="s">
         <v>219</v>
       </c>
+      <c r="E23" s="46" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -6632,12 +6639,6 @@
       <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>785</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>746</v>
-      </c>
     </row>
     <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6771,7 +6772,7 @@
       <c r="D33" t="s">
         <v>212</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="47" t="s">
         <v>365</v>
       </c>
       <c r="F33" s="49" t="s">
@@ -6793,7 +6794,10 @@
       <c r="C35" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" t="s">
+        <v>808</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>788</v>
       </c>
     </row>
@@ -7160,7 +7164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65134C7-4BA5-4FC1-A5F8-F4E5303A0F6D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7403,7 +7407,7 @@
       <c r="D11" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" t="s">
         <v>575</v>
       </c>
       <c r="H11" t="s">

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67984212-5344-40ED-8929-9FF78725A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB084F3-06B3-4F16-A85A-87C61C49862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="816">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -758,19 +758,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Shock doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ambushing</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Devistating Charge</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defence doctrine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -826,14 +818,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Assult doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skirmishing doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Rotation</t>
     </r>
@@ -858,49 +842,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Sailing doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boarding doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BVR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doctrine</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Anti-Air Firepower</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Superiority doctrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Dog fighting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -918,10 +863,6 @@
   </si>
   <si>
     <t>Carpet Bombing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devistation doctrine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1490,10 +1431,6 @@
   </si>
   <si>
     <t>Flamethrower</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unmanned Turret</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3256,6 +3193,97 @@
   </si>
   <si>
     <t>Torpedo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentry Gun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agriculture Proficiency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike the Earth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lumber Expert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caravan Group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oversea Connection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artisanal Dedication</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skirmishing Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sailing Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assault Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boarding Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BVR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doctrine</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superiority Doctrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devistation Doctrine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4222,7 +4250,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,7 +4273,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4254,7 +4282,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -4263,21 +4291,21 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="3"/>
@@ -4304,50 +4332,50 @@
   <sheetData>
     <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
       <c r="M1" s="51" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
       <c r="W1" s="51" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="X1" s="51"/>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" s="51" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="51"/>
@@ -4482,7 +4510,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>158</v>
@@ -4495,7 +4523,7 @@
         <v>135</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>150</v>
@@ -4510,21 +4538,21 @@
         <v>131</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="AE4" s="45" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>83</v>
@@ -4557,31 +4585,31 @@
         <v>142</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>119</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,7 +4626,7 @@
         <v>154</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>155</v>
@@ -4625,7 +4653,7 @@
         <v>107</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>122</v>
@@ -4634,30 +4662,30 @@
         <v>118</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>88</v>
@@ -4672,7 +4700,7 @@
         <v>72</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>
@@ -4696,10 +4724,10 @@
         <v>156</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>149</v>
@@ -4710,7 +4738,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>146</v>
@@ -4752,12 +4780,12 @@
         <v>148</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>86</v>
@@ -4799,22 +4827,22 @@
         <v>132</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AD9" s="45" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,10 +4853,10 @@
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -4837,7 +4865,7 @@
         <v>145</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>99</v>
@@ -4858,13 +4886,13 @@
         <v>125</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,7 +4901,7 @@
         <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>6</v>
@@ -4894,7 +4922,7 @@
         <v>144</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>98</v>
@@ -4921,7 +4949,7 @@
         <v>141</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +4988,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="52" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
@@ -4968,16 +4996,16 @@
         <v>104</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="J1" s="40">
         <v>2050</v>
@@ -4992,294 +5020,294 @@
     <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="26" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="27" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="27"/>
       <c r="H5" s="37" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="35" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="35" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="G13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="28" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,10 +5316,10 @@
       <c r="G14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="M14" s="27"/>
     </row>
@@ -5304,11 +5332,11 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5322,10 +5350,10 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -5442,331 +5470,331 @@
     </row>
     <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>384</v>
-      </c>
       <c r="V2" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="15" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>382</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="T4" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="V4" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="J11" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="O11" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="P11" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>461</v>
-      </c>
       <c r="Q11" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="T11" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5805,7 +5833,7 @@
         <v>81</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>163</v>
@@ -5817,7 +5845,7 @@
         <v>151</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>8</v>
@@ -5832,13 +5860,13 @@
         <v>75</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>74</v>
@@ -5847,7 +5875,7 @@
         <v>158</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="V1" s="16" t="s">
         <v>94</v>
@@ -5859,10 +5887,10 @@
         <v>135</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>108</v>
@@ -5883,7 +5911,7 @@
         <v>116</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>117</v>
@@ -5898,7 +5926,7 @@
         <v>128</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AM1" s="16" t="s">
         <v>126</v>
@@ -5916,376 +5944,376 @@
         <v>137</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Z3" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J4" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AC4" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AO4" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G5" s="18"/>
       <c r="I5" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="N5" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="R5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="W6" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AB6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AK6" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G7" s="15"/>
       <c r="I7" s="18" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N7" s="15"/>
       <c r="R7" s="19" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AG7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Z8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AC8" s="15"/>
       <c r="AD8" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AK8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AP8" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N9" s="18"/>
       <c r="U9" s="15" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AC9" s="19" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="T10" t="s">
         <v>519</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="T10" t="s">
-        <v>529</v>
-      </c>
       <c r="W10" s="15" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AE10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AQ10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="19" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AC11" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AR11" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AH12" s="15" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AI12" s="15" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AR12" s="15" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="18" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AH13" s="15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AI13" s="15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z14" s="18" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AH14" s="15" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z15" s="18" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AI16" s="15" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AI17" s="15" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AA18" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="AB18" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="AC18" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="AN18" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6329,20 +6357,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -6359,13 +6387,13 @@
     </row>
     <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6373,10 +6401,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,25 +6412,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6410,72 +6438,72 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>807</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>173</v>
+        <v>808</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
         <v>117</v>
@@ -6483,438 +6511,459 @@
     </row>
     <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>809</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
         <v>181</v>
       </c>
-      <c r="C14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>185</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>810</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>812</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>813</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>190</v>
+        <v>814</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>196</v>
+        <v>815</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>218</v>
+        <v>800</v>
+      </c>
+      <c r="B20" t="s">
+        <v>801</v>
       </c>
       <c r="C20" t="s">
-        <v>490</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>352</v>
-      </c>
-      <c r="B22" t="s">
+        <v>802</v>
+      </c>
+      <c r="D20" t="s">
+        <v>803</v>
+      </c>
+      <c r="E20" t="s">
+        <v>804</v>
+      </c>
+      <c r="F20" t="s">
+        <v>805</v>
+      </c>
+      <c r="G20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>198</v>
       </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" t="s">
-        <v>528</v>
-      </c>
-      <c r="D25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>208</v>
-      </c>
       <c r="C28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>745</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>747</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>205</v>
+        <v>343</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>518</v>
       </c>
       <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>748</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D30" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>787</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>790</v>
+      <c r="F30" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" t="s">
-        <v>361</v>
+      <c r="B31" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>356</v>
-      </c>
       <c r="B32" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>341</v>
-      </c>
-      <c r="D32" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" t="s">
-        <v>211</v>
+        <v>237</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>364</v>
+        <v>298</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>739</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>789</v>
+      <c r="A34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>228</v>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>808</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>788</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>786</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>269</v>
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>358</v>
-      </c>
-      <c r="B38" t="s">
-        <v>366</v>
-      </c>
-      <c r="C38" t="s">
-        <v>367</v>
-      </c>
-      <c r="D38" t="s">
-        <v>255</v>
-      </c>
-      <c r="E38" t="s">
-        <v>368</v>
+      <c r="B38" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" t="s">
-        <v>342</v>
+      <c r="B39" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>798</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>798</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>797</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>799</v>
+        <v>258</v>
+      </c>
+      <c r="D40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" t="s">
+        <v>349</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>348</v>
+      </c>
+      <c r="B42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>244</v>
+        <v>788</v>
+      </c>
+      <c r="B43" t="s">
+        <v>787</v>
+      </c>
+      <c r="C43" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6961,7 +7010,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6981,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7042,7 +7091,7 @@
         <v>61</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7069,7 +7118,7 @@
         <v>63</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,7 +7158,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>42</v>
@@ -7118,7 +7167,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -7127,13 +7176,13 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7147,7 +7196,7 @@
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,393 +7224,393 @@
   <sheetData>
     <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F2" t="s">
         <v>629</v>
       </c>
-      <c r="B2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F2" t="s">
-        <v>639</v>
-      </c>
       <c r="H2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="J2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="H3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="J3" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="M3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="N3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="P3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F4" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H4" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="J4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H5" t="s">
+        <v>571</v>
+      </c>
+      <c r="J5" t="s">
         <v>581</v>
       </c>
-      <c r="J5" t="s">
-        <v>591</v>
-      </c>
       <c r="P5" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="H6" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="J6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="P6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B7" s="51"/>
       <c r="D7" s="51"/>
       <c r="F7" s="51"/>
       <c r="H7" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="J7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F8" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="H8" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="J8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="H9" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="J9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F10" t="s">
         <v>569</v>
       </c>
-      <c r="F10" t="s">
-        <v>579</v>
-      </c>
       <c r="H10" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="J10" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P10" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D11" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F11" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H11" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="J11" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="P11" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B12" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F12" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="H12" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>602</v>
+      </c>
+      <c r="B13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D13" t="s">
+        <v>610</v>
+      </c>
+      <c r="F13" t="s">
+        <v>611</v>
+      </c>
+      <c r="H13" t="s">
+        <v>609</v>
+      </c>
+      <c r="J13" t="s">
         <v>612</v>
-      </c>
-      <c r="B13" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" t="s">
-        <v>620</v>
-      </c>
-      <c r="F13" t="s">
-        <v>621</v>
-      </c>
-      <c r="H13" t="s">
-        <v>619</v>
-      </c>
-      <c r="J13" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H14" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="P14" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H15" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="J15" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P15" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F16" t="s">
+        <v>566</v>
+      </c>
+      <c r="H16" t="s">
         <v>576</v>
       </c>
-      <c r="H16" t="s">
-        <v>586</v>
-      </c>
       <c r="P16" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B17" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D17" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F17" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H17" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P17" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D18" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F18" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H18" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="J18" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P20" s="23" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7587,45 +7636,45 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB084F3-06B3-4F16-A85A-87C61C49862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729902F2-F2CD-4317-B0D3-928D9FCE6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
   </si>
   <si>
     <t>Three-masted Ship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Submarines</t>
@@ -1291,7 +1291,7 @@
   </si>
   <si>
     <t>Rifleman</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Wheellock Pistol</t>
@@ -1303,7 +1303,7 @@
   </si>
   <si>
     <t>Spearman</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Armorments20</t>
@@ -1323,7 +1323,7 @@
   </si>
   <si>
     <t>Heavy Ballista</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Fire Lance</t>
@@ -1335,11 +1335,11 @@
   </si>
   <si>
     <t>Grenadier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Musketeer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Rifling60</t>
@@ -1363,47 +1363,47 @@
   </si>
   <si>
     <t>Gunboat</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Frigade</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ironclad</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Destroyer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Battleship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Carrier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Missle Crusier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Carrier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear Battleship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Missle Crusier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Modern Cavalry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Advanced Ship Making</t>
@@ -1411,23 +1411,23 @@
   </si>
   <si>
     <t>Tank</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AIR</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Airship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Self-propelled Artillery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AA Gun</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Flamethrower</t>
@@ -1439,31 +1439,31 @@
   </si>
   <si>
     <t>Missle System</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Exoskeleton Infantry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stealth Bomber</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Spec Ops</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ICBM</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Missile</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Early Missile</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Primitive Arms (+2)</t>
@@ -1562,15 +1562,15 @@
   </si>
   <si>
     <t>Railgun</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Railgun Gunboat</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Pioneer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Granary</t>
@@ -1598,23 +1598,23 @@
   </si>
   <si>
     <t>Light Cavalry, Horse Archer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Cavalry, Knights</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Sewage Treatment Plant  Cellular network</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Agricultural Water Storage</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Greenhouse Nutripaste Factory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Healer's Hut</t>
@@ -1628,61 +1628,61 @@
   </si>
   <si>
     <t>Stable,Road Network</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Clinic,Lighthouse</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Aqueduct</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Sewer,Port</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WAN Support, Drone Control Centre</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Manual Farm, Manual Plantation,Camp</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bakery Brewery Pottery Workshop Textile workshop</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Furniture Workshop</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Guild Complex</t>
   </si>
   <si>
     <t>Fishing ports Coast Fishing Boats</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Hospital Aquaculture</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Deep Sea Fishing Boats</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Agricultural Machinery Factory Mechanised Farm, Mechanised Livestock Farm</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Factory Complex</t>
   </si>
   <si>
     <t>Cannery Soda Factory Tools Factory Textile Factory Furniture Factory Electronic Factory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Electronic Factory</t>
@@ -1701,48 +1701,48 @@
   </si>
   <si>
     <t>Steel Mill Aluminium Mill</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Oil Refinery Cement Works Car Factory Construction Vehicle Factory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Power Grid Hydro Plant</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Solar Plant Recycling Center Nuclear Plant</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Spacecraft Factory</t>
   </si>
   <si>
     <t>Machine Tool Factory Coal Plant Mechanised Mine Oil well</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Offshore Platform</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stone Works Manual Mine Quarry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Palace</t>
   </si>
   <si>
     <t>Civilian Blacksmith Jewellery Workshop</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Town Hall</t>
   </si>
   <si>
     <t>City Hall Examination Hall Department of Administration</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Government Complex</t>
@@ -1755,7 +1755,7 @@
   </si>
   <si>
     <t>Ideology Building</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Monument</t>
@@ -1765,7 +1765,7 @@
   </si>
   <si>
     <t>Town Square National Epic</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Theatre</t>
@@ -1775,18 +1775,18 @@
   </si>
   <si>
     <t>Museum,National Museum</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Temple</t>
   </si>
   <si>
     <t>Shrine Shaman's Hut Chaple Altar</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bought Buildings</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Library</t>
@@ -1799,15 +1799,15 @@
   </si>
   <si>
     <t>Schools</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Observatory National Academy of Science</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Research Lab Partical Acclerator</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bio Lab</t>
@@ -1823,7 +1823,7 @@
   </si>
   <si>
     <t>Tea House Café</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Arena</t>
@@ -1842,7 +1842,7 @@
   </si>
   <si>
     <t>Jousing Place</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mercenary Office</t>
@@ -1852,41 +1852,41 @@
   </si>
   <si>
     <t>Military Vehicle Factory Aircraft Factory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Military Stable Military Blacksmith Dry Dock</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Military Factory Complex Naval Dockyard</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Armour workshop Armory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Military Academy Arsenal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Walls</t>
   </si>
   <si>
     <t>Elite Barracks Weapon Parts Workshop Citadel</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bastion</t>
   </si>
   <si>
     <t>Mobilization department Military Port Trench</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Military Base Arms Testing Ground National Defense Department Weapon Parts Factory Bunker</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bomb Shelter</t>
@@ -1896,105 +1896,105 @@
   </si>
   <si>
     <t>Trading Post</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Livestock Market Crops Market Mint</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bank Chartered Company</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>National Reserve National Bank</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stock Exchange</t>
   </si>
   <si>
     <t>Trading Port</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Export Firm Commercial Area</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>E-commerce Firm Complex</t>
   </si>
   <si>
     <t xml:space="preserve">Telephone Circuit Broadcast Tower Train station </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Highway Network  Airport</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Smeltry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Worker Settler</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Propeller Fighter Propeller Bomber </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Jet Fighter Jet Bomber</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Scout</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Ship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Civilian Units</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Levy Ranged</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Standing Ranged</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Levy Close</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Standing Close</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Rider</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Assult</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Siege</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ships</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Catapult Ballista</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mace</t>
@@ -2006,11 +2006,11 @@
   </si>
   <si>
     <t>Motorised Infantry Armored Cars</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Heavy Muskeeter</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>The Wheels</t>
@@ -2022,131 +2022,131 @@
   </si>
   <si>
     <t>Adventurer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Art Gallery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Studios</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Javelineers</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Skirmisher</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Levy Archer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Guerrillas</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Militia</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Crossbowman</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Heavy Infantry </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Sharpshooter</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Early Paratrooper</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Paratrooper</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mountaineers</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Marine Corps</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AA Missle System</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Exoskeleton Spec Ops</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mecha</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Wonder</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Huge Airship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GDR</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Galley Work Ships</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Modern Work Ship</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Chariot</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Pike and Shot</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Modern Conscript</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Armored Train</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Land Crusier</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Primal Warrior</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Galley</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Humvee Helicopter</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Tank Destroyer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Double handed Mace</t>
@@ -2154,19 +2154,19 @@
   </si>
   <si>
     <t>Pistoleer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Field Gun Bombard</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Rocket Artillery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Hand Cannon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>North African</t>
@@ -2194,43 +2194,43 @@
   </si>
   <si>
     <t>CNT-FAI</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Maya</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Omlec</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Aztec</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Inca</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Brasil</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mexican</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>American</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Hinduism</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ELZN</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美洲文明</t>
@@ -2270,383 +2270,383 @@
   </si>
   <si>
     <t>腾格里</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>凯尔特/北欧神系</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>高卢/日耳曼文化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>法兰克/神罗</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>教宗制度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>法国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>纳粹德国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>英国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美利坚</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>王政罗马</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>斯巴达/马其顿/罗马</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>拜占庭</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>教宗制度/耶路撒冷骑士国家</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>意大利各邦</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>意大利统一/希腊独立</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>法西斯意大利</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>阿拉伯黄金时代</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>第一哈里发国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>凯末尔土耳其</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>纳赛尔主义</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美索不达米亚诸城邦/波斯帝国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>帕夏制度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>易卜拉欣</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>周朝分封</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>藩王/大名</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>唐宋科举</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>（架空）黄巾天师</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>辛亥革命</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>光头民国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>政党政府日本/孙文民国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>军国主义日本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>东大</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>埃及神系</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>迦太基</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>汉尼拔迦太基</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>埃米尔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>柏柏尔国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>汉萨同盟/维京扩张</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>东德/苏联/北欧</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>马赫诺的黑军</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>南斯拉夫</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>所罗门教会/阿吞改革</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>威尼斯，热那亚等</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>（架空）迦太基延续</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多神</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一神</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>酋邦</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>求智</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>求战</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>求财</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>封建</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>集权</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>神权</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>人文</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>帝国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>革命</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>自由</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>保守</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>法西斯</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>社会</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>无政府</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>明治帝国主义/（架空）完全体天朝</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>西葡殖民帝国/奥匈多元帝国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>奥斯曼海权/帖木儿陆权</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>（架空）埃及延续/（架空）埃塞俄比亚帝国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>马穆鲁克/（架空）埃及神系延续</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>神系：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特色兵种</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>制度：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>昊天上帝</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基督教（牧首区）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初始</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美索不达米亚神系/祆教</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>希腊/罗马神系/密特拉教</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>丝绸之路</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>伦巴第王国/意大利诸城邦</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>西罗马帝国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>心学改革/顾炎武，王夫之等思想</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新教/启蒙时代</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>英法海权/德，俄陆权</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>阿萨比亚</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>农耕文明</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>农耕/海洋文明</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特征</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>时期：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文明：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初始科技</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>民族史诗特色</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特定弱特色单位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特色纪念碑，崇拜建筑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特色建筑/单位晋升</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>渔猎文明（）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>社稷</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>海洋文明（文明摇篮）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>农耕文明（大禹治水）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Tiwanaku</t>
@@ -2735,7 +2735,7 @@
   </si>
   <si>
     <t>Nanotechnology</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Advanced Ballistics</t>
@@ -2784,7 +2784,7 @@
   </si>
   <si>
     <t>LiDAR</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stealth</t>
@@ -2797,11 +2797,11 @@
   </si>
   <si>
     <t>Bacteriophages</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Hadron Physics</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Dark Energy</t>
@@ -2886,7 +2886,7 @@
   </si>
   <si>
     <t>Deep Sea Mining</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Graphene</t>
@@ -2917,7 +2917,7 @@
   </si>
   <si>
     <t>2040ad</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2030ad </t>
@@ -2925,7 +2925,7 @@
   </si>
   <si>
     <t>2020ad</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2010ad</t>
@@ -2965,7 +2965,7 @@
   </si>
   <si>
     <t>Forecasting</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1350ad-1600ad</t>
@@ -2981,7 +2981,7 @@
   </si>
   <si>
     <t>Remote Control</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1850ad-1940ad</t>
@@ -3177,19 +3177,19 @@
   </si>
   <si>
     <t>萨珊王朝</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>军功爵制度，郡县制</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>百家思想，分封制度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基督教</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Torpedo</t>
@@ -3291,7 +3291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3406,23 +3406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -3435,6 +3423,18 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3540,7 +3540,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3586,31 +3586,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3653,10 +3632,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -3697,6 +3676,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4242,9 +4239,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="39" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4253,21 +4250,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4285,16 +4282,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:3" ht="39" customHeight="1">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4303,11 +4300,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:3" ht="39" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4328,60 +4325,60 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.4" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:35" ht="38.4" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>743</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
         <v>742</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>744</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44" t="s">
         <v>746</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44" t="s">
         <v>763</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44" t="s">
         <v>749</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-    </row>
-    <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" spans="1:35" ht="38.4" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4488,7 +4485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="38.4" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
@@ -4496,7 +4493,7 @@
       <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="5" t="s">
         <v>152</v>
       </c>
@@ -4540,7 +4537,7 @@
       <c r="AC4" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AE4" s="38" t="s">
         <v>772</v>
       </c>
       <c r="AF4" s="5" t="s">
@@ -4550,7 +4547,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="38.4" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>790</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="38.4" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>161</v>
       </c>
@@ -4680,7 +4677,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="38.4" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>791</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="38.4" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -4783,7 +4780,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="38.4" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>792</v>
       </c>
@@ -4835,7 +4832,7 @@
       <c r="AC9" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="AD9" s="45" t="s">
+      <c r="AD9" s="38" t="s">
         <v>751</v>
       </c>
       <c r="AF9" s="5" t="s">
@@ -4845,7 +4842,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="38.4" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="38.4" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>85</v>
@@ -4981,408 +4978,408 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="19.375" style="25"/>
+    <col min="1" max="16384" width="19.36328125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
+      <c r="B1" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="34" t="s">
         <v>732</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="34" t="s">
         <v>731</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="34" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="34" t="s">
         <v>729</v>
       </c>
-      <c r="J1" s="40">
+      <c r="J1" s="33">
         <v>2050</v>
       </c>
-      <c r="K1" s="40">
+      <c r="K1" s="33">
         <v>2060</v>
       </c>
-      <c r="L1" s="40">
+      <c r="L1" s="33">
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:13" ht="39" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="19" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="27" t="s">
+    <row r="3" spans="1:13" ht="39" customHeight="1">
+      <c r="J3" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:13" ht="39" customHeight="1">
+      <c r="B4" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="32" t="s">
         <v>721</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" ht="39" customHeight="1">
+      <c r="B5" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="37" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="20" t="s">
         <v>711</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="35" t="s">
+    <row r="6" spans="1:13" ht="39" customHeight="1">
+      <c r="D6" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>705</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1">
+      <c r="B7" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="20" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="35" t="s">
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="E8" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="36" t="s">
         <v>741</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="33" t="s">
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1">
+      <c r="C9" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="20" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:13" ht="39" customHeight="1">
+      <c r="C10" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="39" customHeight="1">
+      <c r="B11" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="20" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:13" ht="39" customHeight="1">
+      <c r="B12" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="39" customHeight="1">
+      <c r="B13" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27" t="s">
+      <c r="G13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28" t="s">
+      <c r="L13" s="20"/>
+      <c r="M13" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27" t="s">
+    <row r="14" spans="1:13" ht="39" customHeight="1">
+      <c r="B14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27" t="s">
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" ht="39" customHeight="1">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="20"/>
+      <c r="M15" s="20" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27" t="s">
+    <row r="16" spans="1:13" ht="39" customHeight="1">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="19" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+    <row r="17" spans="2:10" ht="39" customHeight="1">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" ht="39" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5391,414 +5388,564 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F092E08-D523-4072-921C-A893C302A87B}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="K9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="81.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A1" s="48">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="48">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="48">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="48">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="48">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="48">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="48">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="48">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="48">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="48">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="48">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="48">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="48">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="48">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="48">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="48">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="48">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="48">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="48">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="48">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="48">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="48">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="48">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="W2" s="48"/>
+    </row>
+    <row r="3" spans="1:23" ht="143.25" customHeight="1">
+      <c r="A3" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="50" t="s">
         <v>379</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="50" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+    </row>
+    <row r="4" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="U4" s="48"/>
+      <c r="V4" s="50" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="50" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A6" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="51" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+    </row>
+    <row r="7" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A7" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="50" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+    </row>
+    <row r="8" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="15" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+    </row>
+    <row r="9" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="T9" s="48"/>
+      <c r="U9" s="50" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+    </row>
+    <row r="10" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="P10" s="48"/>
+      <c r="Q10" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+    </row>
+    <row r="11" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="49" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+    </row>
+    <row r="12" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="50" t="s">
         <v>461</v>
       </c>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5808,516 +5955,1166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F8F12-7BF1-4F36-BA5D-5C77B151C0AF}">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1:J1"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:J1"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="24.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AP1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AQ1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="46" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+    </row>
+    <row r="3" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+    </row>
+    <row r="4" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A4" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="49" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+    </row>
+    <row r="5" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A5" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="I5" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="N5" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="R5" t="s">
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="49" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+    </row>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A6" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="W6" t="s">
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="49" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+    </row>
+    <row r="7" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A7" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="I7" s="18" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="R7" s="19" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+    </row>
+    <row r="8" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A8" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="V8" s="48"/>
+      <c r="W8" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="AA8" s="18" t="s">
+      <c r="AA8" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" t="s">
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="AP8" s="15" t="s">
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="49" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+    </row>
+    <row r="9" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A9" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="U9" s="15" t="s">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AC9" s="19" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="50" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+    </row>
+    <row r="10" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A10" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="T10" t="s">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="AC10" s="18" t="s">
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+    </row>
+    <row r="11" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A11" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="N11" s="48"/>
+      <c r="O11" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="19" t="s">
+      <c r="R11" s="49"/>
+      <c r="S11" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="AB11" s="18" t="s">
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AC11" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="AE11" s="15" t="s">
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="AF11" s="15"/>
-      <c r="AL11" s="15" t="s">
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="AR11" s="15" t="s">
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="49" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="AS11" s="48"/>
+    </row>
+    <row r="12" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A12" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="U12" s="48"/>
+      <c r="V12" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="W12" s="48"/>
+      <c r="X12" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="AH12" s="15" t="s">
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="AI12" s="15" t="s">
+      <c r="AI12" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="AR12" s="15" t="s">
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="49" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="18" t="s">
+      <c r="AS12" s="48"/>
+    </row>
+    <row r="13" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="Z13" s="18" t="s">
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="AH13" s="15" t="s">
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="AI13" s="15" t="s">
+      <c r="AI13" s="49" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z14" s="18" t="s">
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+    </row>
+    <row r="14" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="AH14" s="15" t="s">
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="49" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z15" s="18" t="s">
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+    </row>
+    <row r="15" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="49" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+    </row>
+    <row r="16" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A16" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="AA16" s="15" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="AD16" s="15" t="s">
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="AI16" s="15" t="s">
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="AJ16" s="15" t="s">
+      <c r="AJ16" s="49" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+    </row>
+    <row r="17" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A17" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="AI17" s="15" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="AL17" s="15" t="s">
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="49" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+    </row>
+    <row r="18" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A18" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48" t="s">
         <v>506</v>
       </c>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="Z14:Z15">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
@@ -6359,13 +7156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="24.6" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -6385,7 +7182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.6" customHeight="1">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -6396,7 +7193,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -6407,7 +7204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.6" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -6418,22 +7215,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.6" customHeight="1">
       <c r="B5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.6" customHeight="1">
       <c r="B6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.6" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.6" customHeight="1">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -6453,7 +7250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="24.6" customHeight="1">
       <c r="B9" t="s">
         <v>808</v>
       </c>
@@ -6467,7 +7264,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.6" customHeight="1">
       <c r="B10" t="s">
         <v>255</v>
       </c>
@@ -6481,7 +7278,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.6" customHeight="1">
       <c r="B11" t="s">
         <v>254</v>
       </c>
@@ -6495,7 +7292,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.6" customHeight="1">
       <c r="B12" t="s">
         <v>256</v>
       </c>
@@ -6509,7 +7306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.6" customHeight="1">
       <c r="B13" t="s">
         <v>809</v>
       </c>
@@ -6523,7 +7320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.6" customHeight="1">
       <c r="B14" t="s">
         <v>811</v>
       </c>
@@ -6537,7 +7334,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.6" customHeight="1">
       <c r="B15" t="s">
         <v>810</v>
       </c>
@@ -6551,7 +7348,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.6" customHeight="1">
       <c r="B16" t="s">
         <v>812</v>
       </c>
@@ -6565,7 +7362,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="24.6" customHeight="1">
       <c r="B17" t="s">
         <v>813</v>
       </c>
@@ -6579,7 +7376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="24.6" customHeight="1">
       <c r="B18" t="s">
         <v>814</v>
       </c>
@@ -6593,7 +7390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="24.6" customHeight="1">
       <c r="B19" t="s">
         <v>815</v>
       </c>
@@ -6607,7 +7404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="24.6" customHeight="1">
       <c r="A20" t="s">
         <v>800</v>
       </c>
@@ -6630,7 +7427,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="24.6" customHeight="1">
       <c r="A24" t="s">
         <v>341</v>
       </c>
@@ -6644,15 +7441,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="24.6" customHeight="1">
       <c r="B25" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="39" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="24.6" customHeight="1">
       <c r="A26" t="s">
         <v>342</v>
       </c>
@@ -6669,21 +7466,21 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="24.6" customHeight="1">
       <c r="B27" t="s">
         <v>198</v>
       </c>
       <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="39" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="24.6" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>204</v>
       </c>
@@ -6691,7 +7488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="24.6" customHeight="1">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -6706,7 +7503,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="24.6" customHeight="1">
       <c r="B30" t="s">
         <v>194</v>
       </c>
@@ -6723,7 +7520,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="24.6" customHeight="1">
       <c r="B31" s="13" t="s">
         <v>212</v>
       </c>
@@ -6731,21 +7528,21 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="24.6" customHeight="1">
       <c r="B32" t="s">
         <v>199</v>
       </c>
       <c r="C32" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="39" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="24.6" customHeight="1">
       <c r="A33" t="s">
         <v>344</v>
       </c>
@@ -6758,14 +7555,14 @@
       <c r="D33" t="s">
         <v>298</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="39" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="24.6" customHeight="1">
       <c r="A34" t="s">
         <v>345</v>
       </c>
@@ -6778,14 +7575,14 @@
       <c r="D34" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="40" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="24.6" customHeight="1">
       <c r="B35" t="s">
         <v>200</v>
       </c>
@@ -6796,7 +7593,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="24.6" customHeight="1">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -6813,7 +7610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="24.6" customHeight="1">
       <c r="B37" t="s">
         <v>206</v>
       </c>
@@ -6823,36 +7620,36 @@
       <c r="D37" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="42" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="47" t="s">
+    <row r="38" spans="1:6" ht="24.6" customHeight="1">
+      <c r="B38" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="40" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+    <row r="39" spans="1:6" ht="24.6" customHeight="1">
+      <c r="B39" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="40" t="s">
         <v>219</v>
       </c>
       <c r="D39" t="s">
         <v>798</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="40" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="24.6" customHeight="1">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -6868,11 +7665,11 @@
       <c r="E40" t="s">
         <v>349</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="40" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="24.6" customHeight="1">
       <c r="B41" t="s">
         <v>260</v>
       </c>
@@ -6880,7 +7677,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="24.6" customHeight="1">
       <c r="A42" t="s">
         <v>348</v>
       </c>
@@ -6900,7 +7697,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="24.6" customHeight="1">
       <c r="A43" t="s">
         <v>788</v>
       </c>
@@ -6911,57 +7708,57 @@
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="24.6" customHeight="1">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="24.6" customHeight="1">
       <c r="A47" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="24.6" customHeight="1">
       <c r="A48" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="24.6" customHeight="1">
       <c r="A50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="24.6" customHeight="1">
       <c r="A51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="24.6" customHeight="1">
       <c r="A52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="24.6" customHeight="1">
       <c r="A53" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="24.6" customHeight="1">
       <c r="A54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="24.6" customHeight="1">
       <c r="A55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="24.6" customHeight="1">
       <c r="A56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="24.6" customHeight="1">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -6978,13 +7775,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="21" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -7013,7 +7810,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7033,7 +7830,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7050,7 +7847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" customHeight="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7073,9 +7870,9 @@
       <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7094,7 +7891,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="21" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -7121,7 +7918,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7133,7 +7930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" customHeight="1">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7153,7 +7950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" customHeight="1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -7185,7 +7982,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -7199,7 +7996,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -7217,12 +8014,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1">
       <c r="B1" s="8" t="s">
         <v>541</v>
       </c>
@@ -7251,7 +8048,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="68.25" customHeight="1">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -7271,7 +8068,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="68.25" customHeight="1">
       <c r="A3" t="s">
         <v>592</v>
       </c>
@@ -7300,7 +8097,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="68.25" customHeight="1">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -7320,7 +8117,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="68.25" customHeight="1">
       <c r="A5" t="s">
         <v>594</v>
       </c>
@@ -7343,17 +8140,17 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="68.25" customHeight="1">
       <c r="A6" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>794</v>
       </c>
       <c r="H6" t="s">
@@ -7366,13 +8163,13 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="68.25" customHeight="1">
       <c r="A7" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="H7" t="s">
         <v>795</v>
       </c>
@@ -7383,7 +8180,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="68.25" customHeight="1">
       <c r="A8" t="s">
         <v>597</v>
       </c>
@@ -7403,7 +8200,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="68.25" customHeight="1">
       <c r="A9" t="s">
         <v>598</v>
       </c>
@@ -7423,7 +8220,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="68.25" customHeight="1">
       <c r="A10" t="s">
         <v>599</v>
       </c>
@@ -7446,7 +8243,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="68.25" customHeight="1">
       <c r="A11" t="s">
         <v>600</v>
       </c>
@@ -7469,7 +8266,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="68.25" customHeight="1">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -7486,7 +8283,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="68.25" customHeight="1">
       <c r="A13" t="s">
         <v>602</v>
       </c>
@@ -7506,7 +8303,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="68.25" customHeight="1">
       <c r="A14" t="s">
         <v>603</v>
       </c>
@@ -7523,7 +8320,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="68.25" customHeight="1">
       <c r="A15" t="s">
         <v>604</v>
       </c>
@@ -7540,7 +8337,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="68.25" customHeight="1">
       <c r="A16" t="s">
         <v>605</v>
       </c>
@@ -7557,7 +8354,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="68.25" customHeight="1">
       <c r="A17" t="s">
         <v>606</v>
       </c>
@@ -7577,7 +8374,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="68.25" customHeight="1">
       <c r="A18" t="s">
         <v>607</v>
       </c>
@@ -7597,7 +8394,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="68.25" customHeight="1">
       <c r="A19" t="s">
         <v>608</v>
       </c>
@@ -7608,8 +8405,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="23" t="s">
+    <row r="20" spans="1:16" ht="68.25" customHeight="1">
+      <c r="P20" s="16" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7619,7 +8416,7 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7632,14 +8429,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="39.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1">
       <c r="A1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="39.75" customHeight="1">
       <c r="A2" t="s">
         <v>633</v>
       </c>
@@ -7653,7 +8450,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="39.75" customHeight="1">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -7661,7 +8458,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="39.75" customHeight="1">
       <c r="A4" t="s">
         <v>632</v>
       </c>
@@ -7669,7 +8466,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="39.75" customHeight="1">
       <c r="A5" t="s">
         <v>616</v>
       </c>
@@ -7678,7 +8475,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729902F2-F2CD-4317-B0D3-928D9FCE6549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D32AA-CC09-4665-A911-BB8C912B68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
     <sheet name="Techtree" sheetId="5" r:id="rId2"/>
     <sheet name="PTechtree" sheetId="15" r:id="rId3"/>
-    <sheet name="Building" sheetId="11" r:id="rId4"/>
-    <sheet name="Units" sheetId="9" r:id="rId5"/>
+    <sheet name="BuildingOLD" sheetId="11" r:id="rId4"/>
+    <sheet name="UnitsOLD" sheetId="9" r:id="rId5"/>
     <sheet name="Promotion" sheetId="8" r:id="rId6"/>
     <sheet name="Civ Design(Out of Policy)" sheetId="6" r:id="rId7"/>
     <sheet name="Civ Design(in Policy) chi" sheetId="13" r:id="rId8"/>
@@ -3291,7 +3291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3668,15 +3668,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3694,6 +3685,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4239,9 +4239,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1">
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4250,21 +4250,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1">
+    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1">
+    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1">
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1">
+    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4282,16 +4282,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1">
+    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4300,11 +4300,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4325,60 +4325,60 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="38.4" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50" t="s">
         <v>645</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>744</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>746</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-    </row>
-    <row r="2" spans="1:35" ht="38.4" customHeight="1">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+    </row>
+    <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="38.4" customHeight="1">
+    <row r="4" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
@@ -4547,7 +4547,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="38.4" customHeight="1">
+    <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>790</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="38.4" customHeight="1">
+    <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>161</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="38.4" customHeight="1">
+    <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>791</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="38.4" customHeight="1">
+    <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="38.4" customHeight="1">
+    <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>792</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="38.4" customHeight="1">
+    <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="38.4" customHeight="1">
+    <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>85</v>
@@ -4974,21 +4974,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CEC18-D5B4-4F4B-9A42-44E7072E5DD5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="19.36328125" style="18"/>
+    <col min="1" max="16384" width="19.375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="51" t="s">
         <v>740</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1">
+    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="19" t="s">
         <v>728</v>
@@ -5047,7 +5047,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="39" customHeight="1">
+    <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="20" t="s">
         <v>725</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39" customHeight="1">
+    <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>722</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1">
+    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>715</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39" customHeight="1">
+    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="28" t="s">
         <v>707</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="39" customHeight="1">
+    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>701</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39" customHeight="1">
+    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="28" t="s">
         <v>699</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" ht="39" customHeight="1">
+    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="26" t="s">
         <v>687</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="39" customHeight="1">
+    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="26" t="s">
         <v>679</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" ht="39" customHeight="1">
+    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>672</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="39" customHeight="1">
+    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
         <v>664</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" ht="39" customHeight="1">
+    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>658</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1">
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="E14" s="20"/>
       <c r="G14" s="20"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1">
+    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -5336,7 +5336,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39" customHeight="1">
+    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -5353,7 +5353,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="39" customHeight="1">
+    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -5364,7 +5364,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" ht="39" customHeight="1">
+    <row r="18" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -5392,557 +5392,557 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="81.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A1" s="48">
+    <row r="1" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45">
         <v>0</v>
       </c>
-      <c r="B1" s="48">
+      <c r="B1" s="45">
         <v>1</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <v>2</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="45">
         <v>3</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="45">
         <v>4</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="45">
         <v>5</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="45">
         <v>6</v>
       </c>
-      <c r="H1" s="48">
+      <c r="H1" s="45">
         <v>7</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="45">
         <v>8</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="45">
         <v>9</v>
       </c>
-      <c r="K1" s="48">
+      <c r="K1" s="45">
         <v>10</v>
       </c>
-      <c r="L1" s="48">
+      <c r="L1" s="45">
         <v>11</v>
       </c>
-      <c r="M1" s="48">
+      <c r="M1" s="45">
         <v>12</v>
       </c>
-      <c r="N1" s="48">
+      <c r="N1" s="45">
         <v>13</v>
       </c>
-      <c r="O1" s="48">
+      <c r="O1" s="45">
         <v>14</v>
       </c>
-      <c r="P1" s="48">
+      <c r="P1" s="45">
         <v>15</v>
       </c>
-      <c r="Q1" s="48">
+      <c r="Q1" s="45">
         <v>16</v>
       </c>
-      <c r="R1" s="48">
+      <c r="R1" s="45">
         <v>17</v>
       </c>
-      <c r="S1" s="48">
+      <c r="S1" s="45">
         <v>18</v>
       </c>
-      <c r="T1" s="48">
+      <c r="T1" s="45">
         <v>19</v>
       </c>
-      <c r="U1" s="48">
+      <c r="U1" s="45">
         <v>20</v>
       </c>
-      <c r="V1" s="48">
+      <c r="V1" s="45">
         <v>21</v>
       </c>
-      <c r="W1" s="48">
+      <c r="W1" s="45">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="50" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="W2" s="48"/>
-    </row>
-    <row r="3" spans="1:23" ht="143.25" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="49" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-    </row>
-    <row r="4" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+    </row>
+    <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="50" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="50" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="50" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="U4" s="48"/>
-      <c r="V4" s="50" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="W4" s="48"/>
-    </row>
-    <row r="5" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="50" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="50" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="50" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="50" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-    </row>
-    <row r="7" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="50" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-    </row>
-    <row r="8" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50" t="s">
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+    </row>
+    <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49" t="s">
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="50" t="s">
+      <c r="T9" s="45"/>
+      <c r="U9" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-    </row>
-    <row r="10" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="49" t="s">
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-    </row>
-    <row r="11" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+    </row>
+    <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="50" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="50" t="s">
+      <c r="M11" s="45"/>
+      <c r="N11" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49" t="s">
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-    </row>
-    <row r="12" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="50" t="s">
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+    </row>
+    <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="50" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="50" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="50" t="s">
+      <c r="O12" s="45"/>
+      <c r="P12" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="50" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -5961,1157 +5961,1157 @@
       <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A1" s="48"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="46" t="s">
+      <c r="AD1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="46" t="s">
+      <c r="AE1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="46" t="s">
+      <c r="AI1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="47" t="s">
+      <c r="AL1" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="46" t="s">
+      <c r="AN1" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="46" t="s">
+      <c r="AO1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="AP1" s="47" t="s">
+      <c r="AP1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="AR1" s="46" t="s">
+      <c r="AR1" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="AS1" s="46" t="s">
+      <c r="AS1" s="43" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-    </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+    </row>
+    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-    </row>
-    <row r="4" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+    </row>
+    <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="49" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="49" t="s">
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="49" t="s">
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-    </row>
-    <row r="5" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+    </row>
+    <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="49" t="s">
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-    </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+    </row>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49" t="s">
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49" t="s">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AB6" s="48" t="s">
+      <c r="AB6" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="49" t="s">
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="49" t="s">
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48" t="s">
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="49" t="s">
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-    </row>
-    <row r="7" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+    </row>
+    <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="50" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="49" t="s">
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49" t="s">
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48" t="s">
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-    </row>
-    <row r="8" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+    </row>
+    <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49" t="s">
+      <c r="V8" s="45"/>
+      <c r="W8" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48" t="s">
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="AA8" s="49" t="s">
+      <c r="AA8" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="48" t="s">
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="50" t="s">
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48" t="s">
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="49" t="s">
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-    </row>
-    <row r="9" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+    </row>
+    <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="50" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="49" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="50" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="50" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-    </row>
-    <row r="10" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+    </row>
+    <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49" t="s">
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="50" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48" t="s">
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45" t="s">
         <v>519</v>
       </c>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49" t="s">
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="49" t="s">
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48" t="s">
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48" t="s">
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-    </row>
-    <row r="11" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A11" s="48" t="s">
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+    </row>
+    <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49" t="s">
+      <c r="N11" s="45"/>
+      <c r="O11" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49" t="s">
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50" t="s">
+      <c r="R11" s="46"/>
+      <c r="S11" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="49" t="s">
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="AC11" s="49" t="s">
+      <c r="AC11" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="49" t="s">
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="49" t="s">
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="49" t="s">
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="AS11" s="48"/>
-    </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="AS11" s="45"/>
+    </row>
+    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="U12" s="48"/>
-      <c r="V12" s="49" t="s">
+      <c r="U12" s="45"/>
+      <c r="V12" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="W12" s="48"/>
-      <c r="X12" s="49" t="s">
+      <c r="W12" s="45"/>
+      <c r="X12" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49" t="s">
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49" t="s">
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="49" t="s">
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="AI12" s="49" t="s">
+      <c r="AI12" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="49" t="s">
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="AS12" s="48"/>
-    </row>
-    <row r="13" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49" t="s">
+      <c r="AS12" s="45"/>
+    </row>
+    <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="49" t="s">
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="49" t="s">
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="49" t="s">
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="AI13" s="49" t="s">
+      <c r="AI13" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-    </row>
-    <row r="14" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="49" t="s">
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+    </row>
+    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="49" t="s">
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-    </row>
-    <row r="15" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="49" t="s">
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+    </row>
+    <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-    </row>
-    <row r="16" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+    </row>
+    <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="49" t="s">
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="49" t="s">
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="AJ16" s="49" t="s">
+      <c r="AJ16" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-    </row>
-    <row r="17" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A17" s="48" t="s">
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+    </row>
+    <row r="17" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="49" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="49" t="s">
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-    </row>
-    <row r="18" spans="1:45" ht="24.75" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+    </row>
+    <row r="18" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="AB18" s="48" t="s">
+      <c r="AB18" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="AC18" s="48" t="s">
+      <c r="AC18" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48" t="s">
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -7156,13 +7156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="24.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1">
+    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1">
+    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.6" customHeight="1">
+    <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -7215,22 +7215,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.6" customHeight="1">
+    <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1">
+    <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" customHeight="1">
+    <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.6" customHeight="1">
+    <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.6" customHeight="1">
+    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>808</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.6" customHeight="1">
+    <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>255</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.6" customHeight="1">
+    <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>254</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.6" customHeight="1">
+    <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>256</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.6" customHeight="1">
+    <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>809</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.6" customHeight="1">
+    <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>811</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1">
+    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>810</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.6" customHeight="1">
+    <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>812</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.6" customHeight="1">
+    <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>813</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.6" customHeight="1">
+    <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>814</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24.6" customHeight="1">
+    <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>815</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1">
+    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>800</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1">
+    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>341</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1">
+    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>221</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1">
+    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>342</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1">
+    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>198</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1">
+    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>204</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24.6" customHeight="1">
+    <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1">
+    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>194</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24.6" customHeight="1">
+    <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>212</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24.6" customHeight="1">
+    <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>199</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24.6" customHeight="1">
+    <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>344</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24.6" customHeight="1">
+    <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>345</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24.6" customHeight="1">
+    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>200</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1">
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="24.6" customHeight="1">
+    <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>206</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24.6" customHeight="1">
+    <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
         <v>220</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24.6" customHeight="1">
+    <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40" t="s">
         <v>267</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24.6" customHeight="1">
+    <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24.6" customHeight="1">
+    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>260</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24.6" customHeight="1">
+    <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>348</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24.6" customHeight="1">
+    <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>788</v>
       </c>
@@ -7708,57 +7708,57 @@
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24.6" customHeight="1">
+    <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24.6" customHeight="1">
+    <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24.6" customHeight="1">
+    <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="24.6" customHeight="1">
+    <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="24.6" customHeight="1">
+    <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="24.6" customHeight="1">
+    <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" customHeight="1">
+    <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="24.6" customHeight="1">
+    <row r="54" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="24.6" customHeight="1">
+    <row r="55" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="24.6" customHeight="1">
+    <row r="56" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="24.6" customHeight="1">
+    <row r="57" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -7779,9 +7779,9 @@
       <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1">
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1">
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1">
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -8014,12 +8014,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="68.25" customHeight="1">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>541</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="68.25" customHeight="1">
+    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="68.25" customHeight="1">
+    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>592</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="68.25" customHeight="1">
+    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="68.25" customHeight="1">
+    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>594</v>
       </c>
@@ -8140,17 +8140,17 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="68.25" customHeight="1">
+    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="50" t="s">
         <v>558</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="50" t="s">
         <v>794</v>
       </c>
       <c r="H6" t="s">
@@ -8163,13 +8163,13 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="68.25" customHeight="1">
+    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="H7" t="s">
         <v>795</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1">
+    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>597</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="68.25" customHeight="1">
+    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>598</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="68.25" customHeight="1">
+    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>599</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="68.25" customHeight="1">
+    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>600</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="68.25" customHeight="1">
+    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="68.25" customHeight="1">
+    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>602</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="68.25" customHeight="1">
+    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>603</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="68.25" customHeight="1">
+    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>604</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="68.25" customHeight="1">
+    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>605</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="68.25" customHeight="1">
+    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>606</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="68.25" customHeight="1">
+    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>607</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="68.25" customHeight="1">
+    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>608</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="68.25" customHeight="1">
+    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P20" s="16" t="s">
         <v>538</v>
       </c>
@@ -8429,14 +8429,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="39.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.75" customHeight="1">
+    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>633</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.75" customHeight="1">
+    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.75" customHeight="1">
+    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>632</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" customHeight="1">
+    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>616</v>
       </c>

--- a/WIP/活頁簿1.xlsx
+++ b/WIP/活頁簿1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D32AA-CC09-4665-A911-BB8C912B68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF628DA-514A-4AB9-8659-A68C3342A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{C881A156-6EEB-4E61-80C2-9FE9DE8F1D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="817">
   <si>
     <t>1.Extended tech tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2149,10 +2149,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Double handed Mace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Pistoleer</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3286,12 +3282,18 @@
     <t>Devistation Doctrine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Primitive Rocket</t>
+  </si>
+  <si>
+    <t>Volley Gun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3540,7 +3542,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3579,12 +3581,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3656,18 +3652,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3694,6 +3678,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4239,9 +4250,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="39" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4250,21 +4261,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4273,7 +4284,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4282,16 +4293,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:3" ht="39" customHeight="1">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4300,11 +4311,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:3" ht="39" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="3"/>
     </row>
   </sheetData>
@@ -4325,60 +4336,60 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="38.4" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="1:35" ht="38.4" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
-        <v>645</v>
-      </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
+        <v>742</v>
+      </c>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>743</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
-        <v>742</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-    </row>
-    <row r="2" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+    </row>
+    <row r="2" spans="1:35" ht="38.4" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4485,7 +4496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="38.4" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
@@ -4493,7 +4504,7 @@
       <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="5" t="s">
         <v>152</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>71</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>158</v>
@@ -4535,21 +4546,21 @@
         <v>131</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>772</v>
+        <v>754</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>771</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="38.4" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>83</v>
@@ -4582,34 +4593,34 @@
         <v>142</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>119</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="38.4" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>161</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v>154</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>155</v>
@@ -4650,7 +4661,7 @@
         <v>107</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>122</v>
@@ -4662,24 +4673,24 @@
         <v>215</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="38.4" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>484</v>
@@ -4721,16 +4732,16 @@
         <v>156</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="38.4" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -4777,12 +4788,12 @@
         <v>148</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="38.4" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>86</v>
@@ -4824,25 +4835,25 @@
         <v>132</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AA9" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD9" s="36" t="s">
         <v>750</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="AD9" s="38" t="s">
-        <v>751</v>
-      </c>
       <c r="AF9" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="38.4" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4853,7 +4864,7 @@
         <v>485</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
@@ -4862,7 +4873,7 @@
         <v>145</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>99</v>
@@ -4883,16 +4894,16 @@
         <v>125</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="38.4" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>85</v>
@@ -4919,7 +4930,7 @@
         <v>144</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>98</v>
@@ -4946,7 +4957,7 @@
         <v>141</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -4974,406 +4985,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CEC18-D5B4-4F4B-9A42-44E7072E5DD5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="19.375" style="18"/>
+    <col min="1" max="16384" width="19.36328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
+      <c r="B1" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="J1" s="31">
+        <v>2050</v>
+      </c>
+      <c r="K1" s="31">
+        <v>2060</v>
+      </c>
+      <c r="L1" s="31">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39" customHeight="1">
+      <c r="J3" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39" customHeight="1">
+      <c r="B4" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="39" customHeight="1">
+      <c r="B5" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39" customHeight="1">
+      <c r="D6" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1">
+      <c r="B7" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="E8" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>740</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>732</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>731</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>730</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="J1" s="33">
-        <v>2050</v>
-      </c>
-      <c r="K1" s="33">
-        <v>2060</v>
-      </c>
-      <c r="L1" s="33">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>721</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>702</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="K8" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1">
+      <c r="C9" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>741</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>686</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>698</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39" customHeight="1">
+      <c r="C10" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="39" customHeight="1">
+      <c r="B11" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>676</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>671</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>745</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="D11" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="M11" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="C12" s="23" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="39" customHeight="1">
+      <c r="B12" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
+      <c r="K12" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" ht="39" customHeight="1">
+      <c r="B13" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="G13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21" t="s">
+      <c r="K13" s="18" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="L14" s="20" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1">
+      <c r="B14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20" t="s">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="39" customHeight="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="M16" s="19" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="39" customHeight="1">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="M16" s="17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="39" customHeight="1">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" ht="39" customHeight="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5392,557 +5403,557 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="81.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45">
+    <row r="1" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A1" s="39">
         <v>0</v>
       </c>
-      <c r="B1" s="45">
+      <c r="B1" s="39">
         <v>1</v>
       </c>
-      <c r="C1" s="45">
+      <c r="C1" s="39">
         <v>2</v>
       </c>
-      <c r="D1" s="45">
+      <c r="D1" s="39">
         <v>3</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="39">
         <v>4</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="39">
         <v>5</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="39">
         <v>6</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="39">
         <v>7</v>
       </c>
-      <c r="I1" s="45">
+      <c r="I1" s="39">
         <v>8</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="39">
         <v>9</v>
       </c>
-      <c r="K1" s="45">
+      <c r="K1" s="39">
         <v>10</v>
       </c>
-      <c r="L1" s="45">
+      <c r="L1" s="39">
         <v>11</v>
       </c>
-      <c r="M1" s="45">
+      <c r="M1" s="39">
         <v>12</v>
       </c>
-      <c r="N1" s="45">
+      <c r="N1" s="39">
         <v>13</v>
       </c>
-      <c r="O1" s="45">
+      <c r="O1" s="39">
         <v>14</v>
       </c>
-      <c r="P1" s="45">
+      <c r="P1" s="39">
         <v>15</v>
       </c>
-      <c r="Q1" s="45">
+      <c r="Q1" s="39">
         <v>16</v>
       </c>
-      <c r="R1" s="45">
+      <c r="R1" s="39">
         <v>17</v>
       </c>
-      <c r="S1" s="45">
+      <c r="S1" s="39">
         <v>18</v>
       </c>
-      <c r="T1" s="45">
+      <c r="T1" s="39">
         <v>19</v>
       </c>
-      <c r="U1" s="45">
+      <c r="U1" s="39">
         <v>20</v>
       </c>
-      <c r="V1" s="45">
+      <c r="V1" s="39">
         <v>21</v>
       </c>
-      <c r="W1" s="45">
+      <c r="W1" s="39">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A2" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="47" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46" t="s">
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="W2" s="45"/>
-    </row>
-    <row r="3" spans="1:23" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="W2" s="39"/>
+    </row>
+    <row r="3" spans="1:23" ht="143.25" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="47" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-    </row>
-    <row r="4" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="47" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="47" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="47" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="W4" s="39"/>
+    </row>
+    <row r="5" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="47" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="47" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+    </row>
+    <row r="6" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="47" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="47" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-    </row>
-    <row r="7" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+    </row>
+    <row r="7" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="47" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-    </row>
-    <row r="9" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+    </row>
+    <row r="9" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="46" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="47" t="s">
+      <c r="T9" s="39"/>
+      <c r="U9" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-    </row>
-    <row r="10" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+    </row>
+    <row r="10" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46" t="s">
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46" t="s">
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-    </row>
-    <row r="11" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46" t="s">
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+    </row>
+    <row r="11" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="47" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="47" t="s">
+      <c r="M11" s="39"/>
+      <c r="N11" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="O11" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="Q11" s="47" t="s">
+      <c r="Q11" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-    </row>
-    <row r="12" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="47" t="s">
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+    </row>
+    <row r="12" spans="1:23" ht="81.75" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="47" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="47" t="s">
+      <c r="O12" s="39"/>
+      <c r="P12" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="47" t="s">
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -5961,1157 +5972,1157 @@
       <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="24.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="S1" s="43" t="s">
+      <c r="R1" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AG1" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="44" t="s">
+      <c r="AK1" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="44" t="s">
+      <c r="AL1" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="AM1" s="44" t="s">
+      <c r="AM1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="43" t="s">
+      <c r="AO1" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="AP1" s="44" t="s">
+      <c r="AP1" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" s="44" t="s">
+      <c r="AQ1" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AR1" s="43" t="s">
+      <c r="AR1" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="AS1" s="43" t="s">
+      <c r="AS1" s="37" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A2" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="46" t="s">
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-    </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+    </row>
+    <row r="3" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-    </row>
-    <row r="4" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+    </row>
+    <row r="4" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A4" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="46" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="46" t="s">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="46" t="s">
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-    </row>
-    <row r="5" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+    </row>
+    <row r="5" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46" t="s">
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-    </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+    </row>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45" t="s">
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="46" t="s">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="AB6" s="45" t="s">
+      <c r="AB6" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="46" t="s">
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="46" t="s">
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45" t="s">
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46" t="s">
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-    </row>
-    <row r="7" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+    </row>
+    <row r="7" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A7" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="47" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46" t="s">
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-    </row>
-    <row r="8" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+    </row>
+    <row r="8" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A8" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="46" t="s">
+      <c r="V8" s="39"/>
+      <c r="W8" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45" t="s">
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="AA8" s="46" t="s">
+      <c r="AA8" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="45" t="s">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="47" t="s">
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45" t="s">
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="46" t="s">
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-    </row>
-    <row r="9" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+    </row>
+    <row r="9" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A9" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="47" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46" t="s">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="46" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="47" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="47" t="s">
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-    </row>
-    <row r="10" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+    </row>
+    <row r="10" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A10" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="47" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45" t="s">
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+    </row>
+    <row r="11" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-    </row>
-    <row r="11" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47" t="s">
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC11" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="46" t="s">
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="46" t="s">
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="AS11" s="45"/>
-    </row>
-    <row r="12" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="AS11" s="39"/>
+    </row>
+    <row r="12" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="U12" s="45"/>
-      <c r="V12" s="46" t="s">
+      <c r="U12" s="39"/>
+      <c r="V12" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46" t="s">
+      <c r="W12" s="39"/>
+      <c r="X12" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="46" t="s">
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="46" t="s">
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="46" t="s">
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="AI12" s="46" t="s">
+      <c r="AI12" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="46" t="s">
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="AS12" s="45"/>
-    </row>
-    <row r="13" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46" t="s">
+      <c r="AS12" s="39"/>
+    </row>
+    <row r="13" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="46" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="46" t="s">
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="46" t="s">
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="AI13" s="46" t="s">
+      <c r="AI13" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-    </row>
-    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="46" t="s">
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+    </row>
+    <row r="14" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="46" t="s">
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-    </row>
-    <row r="15" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="46" t="s">
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+    </row>
+    <row r="15" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-    </row>
-    <row r="16" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+    </row>
+    <row r="16" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A16" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="46" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="46" t="s">
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="46" t="s">
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="AJ16" s="46" t="s">
+      <c r="AJ16" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-    </row>
-    <row r="17" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+    </row>
+    <row r="17" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A17" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="46" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="46" t="s">
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-    </row>
-    <row r="18" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+    </row>
+    <row r="18" spans="1:45" ht="24.75" customHeight="1">
+      <c r="A18" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="AB18" s="45" t="s">
+      <c r="AB18" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="AC18" s="45" t="s">
+      <c r="AC18" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45" t="s">
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -7154,612 +7165,618 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53FB35-CF66-4CF1-8CCA-C87A13BE0A97}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="32.4" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="16.26953125" style="46"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="46">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="46">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="46">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="46" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="46" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="46" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B5" s="46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B6" s="46" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B7" s="47" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A8" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B9" s="46" t="s">
         <v>807</v>
       </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="F8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B10" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B11" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B12" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B13" s="46" t="s">
         <v>808</v>
       </c>
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C13" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B14" s="46" t="s">
+        <v>810</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B15" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32.4" customHeight="1">
+      <c r="B16" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B17" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B18" s="46" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B19" s="46" t="s">
+        <v>814</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A24" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B25" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A26" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B27" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B28" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A29" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B30" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B31" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32.4" customHeight="1">
+      <c r="B32" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="51" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>809</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>811</v>
-      </c>
-      <c r="C14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>810</v>
-      </c>
-      <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>812</v>
-      </c>
-      <c r="C16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>813</v>
-      </c>
-      <c r="C17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>814</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E32" s="51" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A33" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>800</v>
-      </c>
-      <c r="B20" t="s">
-        <v>801</v>
-      </c>
-      <c r="C20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E20" t="s">
-        <v>804</v>
-      </c>
-      <c r="F20" t="s">
-        <v>805</v>
-      </c>
-      <c r="G20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="F33" s="46" t="s">
+        <v>816</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A34" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32.4" customHeight="1">
+      <c r="B35" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A36" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="32.4" customHeight="1">
+      <c r="B37" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="32.4" customHeight="1">
+      <c r="B38" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32.4" customHeight="1">
+      <c r="B39" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" t="s">
-        <v>518</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" t="s">
-        <v>352</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>346</v>
-      </c>
-      <c r="B36" t="s">
-        <v>353</v>
-      </c>
-      <c r="C36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="41" spans="1:8" ht="32.4" customHeight="1">
+      <c r="B41" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A42" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>348</v>
-      </c>
-      <c r="B42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C42" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" t="s">
-        <v>358</v>
-      </c>
-      <c r="F42" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A43" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="B43" t="s">
-        <v>787</v>
-      </c>
-      <c r="C43" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A46" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A47" s="46" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A48" s="46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A50" s="46" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A51" s="46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A52" s="46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A53" s="46" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A54" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A55" s="46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A56" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:1" ht="32.4" customHeight="1">
+      <c r="A57" s="46" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7779,9 +7796,9 @@
       <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="21" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -7807,10 +7824,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7827,10 +7844,10 @@
         <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7847,7 +7864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" customHeight="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7870,9 +7887,9 @@
       <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7888,10 +7905,10 @@
         <v>61</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -7915,10 +7932,10 @@
         <v>63</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7930,7 +7947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="21" customHeight="1">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7950,7 +7967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" customHeight="1">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -7979,10 +7996,10 @@
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -7993,10 +8010,10 @@
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -8014,400 +8031,400 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="68.25" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="68.25" customHeight="1">
       <c r="B1" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" t="s">
+        <v>639</v>
+      </c>
+      <c r="J3" t="s">
+        <v>579</v>
+      </c>
+      <c r="M3" t="s">
         <v>547</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="N3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" t="s">
+        <v>616</v>
+      </c>
+      <c r="J4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H5" t="s">
+        <v>570</v>
+      </c>
+      <c r="J5" t="s">
+        <v>580</v>
+      </c>
+      <c r="P5" t="s">
         <v>642</v>
       </c>
-      <c r="J2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>793</v>
+      </c>
+      <c r="H6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J6" t="s">
+        <v>563</v>
+      </c>
+      <c r="P6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="H7" t="s">
+        <v>794</v>
+      </c>
+      <c r="J7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F8" t="s">
         <v>621</v>
       </c>
-      <c r="F3" t="s">
-        <v>620</v>
-      </c>
-      <c r="H3" t="s">
-        <v>640</v>
-      </c>
-      <c r="J3" t="s">
-        <v>580</v>
-      </c>
-      <c r="M3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="H8" t="s">
+        <v>621</v>
+      </c>
+      <c r="J8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" t="s">
+        <v>582</v>
+      </c>
+      <c r="H9" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10" t="s">
+        <v>568</v>
+      </c>
+      <c r="H10" t="s">
+        <v>572</v>
+      </c>
+      <c r="J10" t="s">
+        <v>568</v>
+      </c>
+      <c r="P10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B11" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" t="s">
+        <v>564</v>
+      </c>
+      <c r="H11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" t="s">
+        <v>612</v>
+      </c>
+      <c r="P11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" t="s">
+        <v>560</v>
+      </c>
+      <c r="F12" t="s">
+        <v>627</v>
+      </c>
+      <c r="H12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B13" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" t="s">
+        <v>610</v>
+      </c>
+      <c r="H13" t="s">
+        <v>608</v>
+      </c>
+      <c r="J13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" t="s">
+        <v>561</v>
+      </c>
+      <c r="H14" t="s">
+        <v>574</v>
+      </c>
+      <c r="P14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H15" t="s">
+        <v>576</v>
+      </c>
+      <c r="J15" t="s">
+        <v>590</v>
+      </c>
+      <c r="P15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" t="s">
+        <v>565</v>
+      </c>
+      <c r="H16" t="s">
+        <v>575</v>
+      </c>
+      <c r="P16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" t="s">
+        <v>565</v>
+      </c>
+      <c r="H17" t="s">
+        <v>577</v>
+      </c>
+      <c r="P17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>606</v>
+      </c>
+      <c r="B18" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" t="s">
+        <v>566</v>
+      </c>
+      <c r="H18" t="s">
+        <v>578</v>
+      </c>
+      <c r="J18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="68.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B19" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="68.25" customHeight="1">
+      <c r="P20" s="14" t="s">
         <v>537</v>
-      </c>
-      <c r="P3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>593</v>
-      </c>
-      <c r="B4" t="s">
-        <v>797</v>
-      </c>
-      <c r="D4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F4" t="s">
-        <v>570</v>
-      </c>
-      <c r="H4" t="s">
-        <v>617</v>
-      </c>
-      <c r="J4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" t="s">
-        <v>568</v>
-      </c>
-      <c r="H5" t="s">
-        <v>571</v>
-      </c>
-      <c r="J5" t="s">
-        <v>581</v>
-      </c>
-      <c r="P5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>595</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>794</v>
-      </c>
-      <c r="H6" t="s">
-        <v>796</v>
-      </c>
-      <c r="J6" t="s">
-        <v>564</v>
-      </c>
-      <c r="P6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="H7" t="s">
-        <v>795</v>
-      </c>
-      <c r="J7" t="s">
-        <v>582</v>
-      </c>
-      <c r="P7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B8" t="s">
-        <v>585</v>
-      </c>
-      <c r="D8" t="s">
-        <v>590</v>
-      </c>
-      <c r="F8" t="s">
-        <v>622</v>
-      </c>
-      <c r="H8" t="s">
-        <v>622</v>
-      </c>
-      <c r="J8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>598</v>
-      </c>
-      <c r="B9" t="s">
-        <v>551</v>
-      </c>
-      <c r="D9" t="s">
-        <v>623</v>
-      </c>
-      <c r="F9" t="s">
-        <v>583</v>
-      </c>
-      <c r="H9" t="s">
-        <v>572</v>
-      </c>
-      <c r="J9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>599</v>
-      </c>
-      <c r="B10" t="s">
-        <v>624</v>
-      </c>
-      <c r="D10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H10" t="s">
-        <v>573</v>
-      </c>
-      <c r="J10" t="s">
-        <v>569</v>
-      </c>
-      <c r="P10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>600</v>
-      </c>
-      <c r="B11" t="s">
-        <v>552</v>
-      </c>
-      <c r="D11" t="s">
-        <v>560</v>
-      </c>
-      <c r="F11" t="s">
-        <v>565</v>
-      </c>
-      <c r="H11" t="s">
-        <v>574</v>
-      </c>
-      <c r="J11" t="s">
-        <v>613</v>
-      </c>
-      <c r="P11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B12" t="s">
-        <v>626</v>
-      </c>
-      <c r="D12" t="s">
-        <v>561</v>
-      </c>
-      <c r="F12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>602</v>
-      </c>
-      <c r="B13" t="s">
-        <v>627</v>
-      </c>
-      <c r="D13" t="s">
-        <v>610</v>
-      </c>
-      <c r="F13" t="s">
-        <v>611</v>
-      </c>
-      <c r="H13" t="s">
-        <v>609</v>
-      </c>
-      <c r="J13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>603</v>
-      </c>
-      <c r="B14" t="s">
-        <v>553</v>
-      </c>
-      <c r="D14" t="s">
-        <v>562</v>
-      </c>
-      <c r="H14" t="s">
-        <v>575</v>
-      </c>
-      <c r="P14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>604</v>
-      </c>
-      <c r="B15" t="s">
-        <v>556</v>
-      </c>
-      <c r="H15" t="s">
-        <v>577</v>
-      </c>
-      <c r="J15" t="s">
-        <v>591</v>
-      </c>
-      <c r="P15" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>605</v>
-      </c>
-      <c r="B16" t="s">
-        <v>555</v>
-      </c>
-      <c r="F16" t="s">
-        <v>566</v>
-      </c>
-      <c r="H16" t="s">
-        <v>576</v>
-      </c>
-      <c r="P16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>606</v>
-      </c>
-      <c r="B17" t="s">
-        <v>554</v>
-      </c>
-      <c r="D17" t="s">
-        <v>563</v>
-      </c>
-      <c r="F17" t="s">
-        <v>566</v>
-      </c>
-      <c r="H17" t="s">
-        <v>578</v>
-      </c>
-      <c r="P17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>607</v>
-      </c>
-      <c r="B18" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" t="s">
-        <v>588</v>
-      </c>
-      <c r="F18" t="s">
-        <v>567</v>
-      </c>
-      <c r="H18" t="s">
-        <v>579</v>
-      </c>
-      <c r="J18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>608</v>
-      </c>
-      <c r="B19" t="s">
-        <v>587</v>
-      </c>
-      <c r="D19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="16" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8429,49 +8446,49 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.7265625" defaultRowHeight="39.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1">
       <c r="A1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A4" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>614</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B5" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
